--- a/SSC MASTER LIST.xlsx
+++ b/SSC MASTER LIST.xlsx
@@ -2448,7 +2448,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2486,6 +2486,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2576,7 +2582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2611,8 +2617,8 @@
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -2623,8 +2629,11 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2939,8 +2948,8 @@
     <col min="3" max="3" style="15" width="33.43357142857143" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="15" width="59.86214285714286" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="15" width="22.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="16" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="16" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="17" width="10.290714285714287" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="15" width="20.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -3256,7 +3265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="8">
         <v>0</v>
       </c>
@@ -3282,7 +3291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="8">
         <v>0</v>
       </c>
@@ -3308,7 +3317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="8">
         <v>0</v>
       </c>
@@ -3334,7 +3343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="8">
         <v>0</v>
       </c>
@@ -3360,7 +3369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="8">
         <v>0</v>
       </c>
@@ -3386,7 +3395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="8">
         <v>0</v>
       </c>
@@ -3412,7 +3421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="8">
         <v>0</v>
       </c>
@@ -3438,7 +3447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="8">
         <v>0</v>
       </c>
@@ -3464,7 +3473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="8">
         <v>0</v>
       </c>
@@ -3490,7 +3499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="8">
         <v>0</v>
       </c>
@@ -3516,7 +3525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="8">
         <v>0</v>
       </c>
@@ -3542,7 +3551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="8">
         <v>0</v>
       </c>
@@ -3568,7 +3577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="8">
         <v>0</v>
       </c>
@@ -3594,7 +3603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="8">
         <v>0</v>
       </c>

--- a/SSC MASTER LIST.xlsx
+++ b/SSC MASTER LIST.xlsx
@@ -2448,7 +2448,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2486,12 +2486,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2582,7 +2576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2617,14 +2611,11 @@
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -2943,14 +2934,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="5.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="33.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="59.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="22.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="16" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="17" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="15" width="20.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="5.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="33.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="59.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="15" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="16" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="14" width="20.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -21024,3054 +21015,3054 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="696" customHeight="1" ht="15.75">
-      <c r="A696" s="12"/>
-      <c r="B696" s="13"/>
-      <c r="C696" s="13"/>
-      <c r="D696" s="13"/>
-      <c r="E696" s="13"/>
+      <c r="A696" s="8"/>
+      <c r="B696" s="12"/>
+      <c r="C696" s="12"/>
+      <c r="D696" s="12"/>
+      <c r="E696" s="12"/>
       <c r="F696" s="10"/>
       <c r="G696" s="10"/>
-      <c r="H696" s="13"/>
+      <c r="H696" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="697" customHeight="1" ht="15.75">
-      <c r="A697" s="12"/>
-      <c r="B697" s="13"/>
-      <c r="C697" s="13"/>
-      <c r="D697" s="13"/>
-      <c r="E697" s="13"/>
+      <c r="A697" s="8"/>
+      <c r="B697" s="12"/>
+      <c r="C697" s="12"/>
+      <c r="D697" s="12"/>
+      <c r="E697" s="12"/>
       <c r="F697" s="10"/>
       <c r="G697" s="10"/>
-      <c r="H697" s="13"/>
+      <c r="H697" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="698" customHeight="1" ht="15.75">
-      <c r="A698" s="12"/>
-      <c r="B698" s="13"/>
-      <c r="C698" s="13"/>
-      <c r="D698" s="13"/>
-      <c r="E698" s="13"/>
+      <c r="A698" s="8"/>
+      <c r="B698" s="12"/>
+      <c r="C698" s="12"/>
+      <c r="D698" s="12"/>
+      <c r="E698" s="12"/>
       <c r="F698" s="10"/>
       <c r="G698" s="10"/>
-      <c r="H698" s="13"/>
+      <c r="H698" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="699" customHeight="1" ht="15.75">
-      <c r="A699" s="12"/>
-      <c r="B699" s="13"/>
-      <c r="C699" s="13"/>
-      <c r="D699" s="13"/>
-      <c r="E699" s="13"/>
+      <c r="A699" s="8"/>
+      <c r="B699" s="12"/>
+      <c r="C699" s="12"/>
+      <c r="D699" s="12"/>
+      <c r="E699" s="12"/>
       <c r="F699" s="10"/>
       <c r="G699" s="10"/>
-      <c r="H699" s="13"/>
+      <c r="H699" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="700" customHeight="1" ht="15.75">
-      <c r="A700" s="12"/>
-      <c r="B700" s="13"/>
-      <c r="C700" s="13"/>
-      <c r="D700" s="13"/>
-      <c r="E700" s="13"/>
+      <c r="A700" s="8"/>
+      <c r="B700" s="12"/>
+      <c r="C700" s="12"/>
+      <c r="D700" s="12"/>
+      <c r="E700" s="12"/>
       <c r="F700" s="10"/>
       <c r="G700" s="10"/>
-      <c r="H700" s="13"/>
+      <c r="H700" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="701" customHeight="1" ht="15.75">
-      <c r="A701" s="12"/>
-      <c r="B701" s="13"/>
-      <c r="C701" s="13"/>
-      <c r="D701" s="13"/>
-      <c r="E701" s="13"/>
+      <c r="A701" s="8"/>
+      <c r="B701" s="12"/>
+      <c r="C701" s="12"/>
+      <c r="D701" s="12"/>
+      <c r="E701" s="12"/>
       <c r="F701" s="10"/>
       <c r="G701" s="10"/>
-      <c r="H701" s="13"/>
+      <c r="H701" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="702" customHeight="1" ht="15.75">
-      <c r="A702" s="12"/>
-      <c r="B702" s="13"/>
-      <c r="C702" s="13"/>
-      <c r="D702" s="13"/>
-      <c r="E702" s="13"/>
+      <c r="A702" s="8"/>
+      <c r="B702" s="12"/>
+      <c r="C702" s="12"/>
+      <c r="D702" s="12"/>
+      <c r="E702" s="12"/>
       <c r="F702" s="10"/>
       <c r="G702" s="10"/>
-      <c r="H702" s="13"/>
+      <c r="H702" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="703" customHeight="1" ht="15.75">
-      <c r="A703" s="12"/>
-      <c r="B703" s="13"/>
-      <c r="C703" s="13"/>
-      <c r="D703" s="13"/>
-      <c r="E703" s="13"/>
+      <c r="A703" s="8"/>
+      <c r="B703" s="12"/>
+      <c r="C703" s="12"/>
+      <c r="D703" s="12"/>
+      <c r="E703" s="12"/>
       <c r="F703" s="10"/>
       <c r="G703" s="10"/>
-      <c r="H703" s="13"/>
+      <c r="H703" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="704" customHeight="1" ht="15.75">
-      <c r="A704" s="12"/>
-      <c r="B704" s="13"/>
-      <c r="C704" s="13"/>
-      <c r="D704" s="13"/>
-      <c r="E704" s="13"/>
+      <c r="A704" s="8"/>
+      <c r="B704" s="12"/>
+      <c r="C704" s="12"/>
+      <c r="D704" s="12"/>
+      <c r="E704" s="12"/>
       <c r="F704" s="10"/>
       <c r="G704" s="10"/>
-      <c r="H704" s="13"/>
+      <c r="H704" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="705" customHeight="1" ht="15.75">
-      <c r="A705" s="12"/>
-      <c r="B705" s="13"/>
-      <c r="C705" s="13"/>
-      <c r="D705" s="13"/>
-      <c r="E705" s="13"/>
+      <c r="A705" s="8"/>
+      <c r="B705" s="12"/>
+      <c r="C705" s="12"/>
+      <c r="D705" s="12"/>
+      <c r="E705" s="12"/>
       <c r="F705" s="10"/>
       <c r="G705" s="10"/>
-      <c r="H705" s="13"/>
+      <c r="H705" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="706" customHeight="1" ht="15.75">
-      <c r="A706" s="12"/>
-      <c r="B706" s="13"/>
-      <c r="C706" s="13"/>
-      <c r="D706" s="13"/>
-      <c r="E706" s="13"/>
+      <c r="A706" s="8"/>
+      <c r="B706" s="12"/>
+      <c r="C706" s="12"/>
+      <c r="D706" s="12"/>
+      <c r="E706" s="12"/>
       <c r="F706" s="10"/>
       <c r="G706" s="10"/>
-      <c r="H706" s="13"/>
+      <c r="H706" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="707" customHeight="1" ht="15.75">
-      <c r="A707" s="12"/>
-      <c r="B707" s="13"/>
-      <c r="C707" s="13"/>
-      <c r="D707" s="13"/>
-      <c r="E707" s="13"/>
+      <c r="A707" s="8"/>
+      <c r="B707" s="12"/>
+      <c r="C707" s="12"/>
+      <c r="D707" s="12"/>
+      <c r="E707" s="12"/>
       <c r="F707" s="10"/>
       <c r="G707" s="10"/>
-      <c r="H707" s="13"/>
+      <c r="H707" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="708" customHeight="1" ht="15.75">
-      <c r="A708" s="12"/>
-      <c r="B708" s="13"/>
-      <c r="C708" s="13"/>
-      <c r="D708" s="13"/>
-      <c r="E708" s="13"/>
+      <c r="A708" s="8"/>
+      <c r="B708" s="12"/>
+      <c r="C708" s="12"/>
+      <c r="D708" s="12"/>
+      <c r="E708" s="12"/>
       <c r="F708" s="10"/>
       <c r="G708" s="10"/>
-      <c r="H708" s="13"/>
+      <c r="H708" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="709" customHeight="1" ht="15.75">
-      <c r="A709" s="12"/>
-      <c r="B709" s="13"/>
-      <c r="C709" s="13"/>
-      <c r="D709" s="13"/>
-      <c r="E709" s="13"/>
+      <c r="A709" s="8"/>
+      <c r="B709" s="12"/>
+      <c r="C709" s="12"/>
+      <c r="D709" s="12"/>
+      <c r="E709" s="12"/>
       <c r="F709" s="10"/>
       <c r="G709" s="10"/>
-      <c r="H709" s="13"/>
+      <c r="H709" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="710" customHeight="1" ht="15.75">
-      <c r="A710" s="12"/>
-      <c r="B710" s="13"/>
-      <c r="C710" s="13"/>
-      <c r="D710" s="13"/>
-      <c r="E710" s="13"/>
+      <c r="A710" s="8"/>
+      <c r="B710" s="12"/>
+      <c r="C710" s="12"/>
+      <c r="D710" s="12"/>
+      <c r="E710" s="12"/>
       <c r="F710" s="10"/>
       <c r="G710" s="10"/>
-      <c r="H710" s="13"/>
+      <c r="H710" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="711" customHeight="1" ht="15.75">
-      <c r="A711" s="12"/>
-      <c r="B711" s="13"/>
-      <c r="C711" s="13"/>
-      <c r="D711" s="13"/>
-      <c r="E711" s="13"/>
+      <c r="A711" s="8"/>
+      <c r="B711" s="12"/>
+      <c r="C711" s="12"/>
+      <c r="D711" s="12"/>
+      <c r="E711" s="12"/>
       <c r="F711" s="10"/>
       <c r="G711" s="10"/>
-      <c r="H711" s="13"/>
+      <c r="H711" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="712" customHeight="1" ht="15.75">
-      <c r="A712" s="12"/>
-      <c r="B712" s="13"/>
-      <c r="C712" s="13"/>
-      <c r="D712" s="13"/>
-      <c r="E712" s="13"/>
+      <c r="A712" s="8"/>
+      <c r="B712" s="12"/>
+      <c r="C712" s="12"/>
+      <c r="D712" s="12"/>
+      <c r="E712" s="12"/>
       <c r="F712" s="10"/>
       <c r="G712" s="10"/>
-      <c r="H712" s="13"/>
+      <c r="H712" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="713" customHeight="1" ht="15.75">
-      <c r="A713" s="12"/>
-      <c r="B713" s="13"/>
-      <c r="C713" s="13"/>
-      <c r="D713" s="13"/>
-      <c r="E713" s="13"/>
+      <c r="A713" s="8"/>
+      <c r="B713" s="12"/>
+      <c r="C713" s="12"/>
+      <c r="D713" s="12"/>
+      <c r="E713" s="12"/>
       <c r="F713" s="10"/>
       <c r="G713" s="10"/>
-      <c r="H713" s="13"/>
+      <c r="H713" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="714" customHeight="1" ht="15.75">
-      <c r="A714" s="12"/>
-      <c r="B714" s="13"/>
-      <c r="C714" s="13"/>
-      <c r="D714" s="13"/>
-      <c r="E714" s="13"/>
+      <c r="A714" s="8"/>
+      <c r="B714" s="12"/>
+      <c r="C714" s="12"/>
+      <c r="D714" s="12"/>
+      <c r="E714" s="12"/>
       <c r="F714" s="10"/>
       <c r="G714" s="10"/>
-      <c r="H714" s="13"/>
+      <c r="H714" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="715" customHeight="1" ht="15.75">
-      <c r="A715" s="12"/>
-      <c r="B715" s="13"/>
-      <c r="C715" s="13"/>
-      <c r="D715" s="13"/>
-      <c r="E715" s="13"/>
+      <c r="A715" s="8"/>
+      <c r="B715" s="12"/>
+      <c r="C715" s="12"/>
+      <c r="D715" s="12"/>
+      <c r="E715" s="12"/>
       <c r="F715" s="10"/>
       <c r="G715" s="10"/>
-      <c r="H715" s="13"/>
+      <c r="H715" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="716" customHeight="1" ht="15.75">
-      <c r="A716" s="12"/>
-      <c r="B716" s="13"/>
-      <c r="C716" s="13"/>
-      <c r="D716" s="13"/>
-      <c r="E716" s="13"/>
+      <c r="A716" s="8"/>
+      <c r="B716" s="12"/>
+      <c r="C716" s="12"/>
+      <c r="D716" s="12"/>
+      <c r="E716" s="12"/>
       <c r="F716" s="10"/>
       <c r="G716" s="10"/>
-      <c r="H716" s="13"/>
+      <c r="H716" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="717" customHeight="1" ht="15.75">
-      <c r="A717" s="12"/>
-      <c r="B717" s="13"/>
-      <c r="C717" s="13"/>
-      <c r="D717" s="13"/>
-      <c r="E717" s="13"/>
+      <c r="A717" s="8"/>
+      <c r="B717" s="12"/>
+      <c r="C717" s="12"/>
+      <c r="D717" s="12"/>
+      <c r="E717" s="12"/>
       <c r="F717" s="10"/>
       <c r="G717" s="10"/>
-      <c r="H717" s="13"/>
+      <c r="H717" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="718" customHeight="1" ht="15.75">
-      <c r="A718" s="12"/>
-      <c r="B718" s="13"/>
-      <c r="C718" s="13"/>
-      <c r="D718" s="13"/>
-      <c r="E718" s="13"/>
+      <c r="A718" s="8"/>
+      <c r="B718" s="12"/>
+      <c r="C718" s="12"/>
+      <c r="D718" s="12"/>
+      <c r="E718" s="12"/>
       <c r="F718" s="10"/>
       <c r="G718" s="10"/>
-      <c r="H718" s="13"/>
+      <c r="H718" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="719" customHeight="1" ht="15.75">
-      <c r="A719" s="12"/>
-      <c r="B719" s="13"/>
-      <c r="C719" s="13"/>
-      <c r="D719" s="13"/>
-      <c r="E719" s="13"/>
+      <c r="A719" s="8"/>
+      <c r="B719" s="12"/>
+      <c r="C719" s="12"/>
+      <c r="D719" s="12"/>
+      <c r="E719" s="12"/>
       <c r="F719" s="10"/>
       <c r="G719" s="10"/>
-      <c r="H719" s="13"/>
+      <c r="H719" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="720" customHeight="1" ht="15.75">
-      <c r="A720" s="12"/>
-      <c r="B720" s="13"/>
-      <c r="C720" s="13"/>
-      <c r="D720" s="13"/>
-      <c r="E720" s="13"/>
+      <c r="A720" s="8"/>
+      <c r="B720" s="12"/>
+      <c r="C720" s="12"/>
+      <c r="D720" s="12"/>
+      <c r="E720" s="12"/>
       <c r="F720" s="10"/>
       <c r="G720" s="10"/>
-      <c r="H720" s="13"/>
+      <c r="H720" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="721" customHeight="1" ht="15.75">
-      <c r="A721" s="12"/>
-      <c r="B721" s="13"/>
-      <c r="C721" s="13"/>
-      <c r="D721" s="13"/>
-      <c r="E721" s="13"/>
+      <c r="A721" s="8"/>
+      <c r="B721" s="12"/>
+      <c r="C721" s="12"/>
+      <c r="D721" s="12"/>
+      <c r="E721" s="12"/>
       <c r="F721" s="10"/>
       <c r="G721" s="10"/>
-      <c r="H721" s="13"/>
+      <c r="H721" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="722" customHeight="1" ht="15.75">
-      <c r="A722" s="12"/>
-      <c r="B722" s="13"/>
-      <c r="C722" s="13"/>
-      <c r="D722" s="13"/>
-      <c r="E722" s="13"/>
+      <c r="A722" s="8"/>
+      <c r="B722" s="12"/>
+      <c r="C722" s="12"/>
+      <c r="D722" s="12"/>
+      <c r="E722" s="12"/>
       <c r="F722" s="10"/>
       <c r="G722" s="10"/>
-      <c r="H722" s="13"/>
+      <c r="H722" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="723" customHeight="1" ht="15.75">
-      <c r="A723" s="12"/>
-      <c r="B723" s="13"/>
-      <c r="C723" s="13"/>
-      <c r="D723" s="13"/>
-      <c r="E723" s="13"/>
+      <c r="A723" s="8"/>
+      <c r="B723" s="12"/>
+      <c r="C723" s="12"/>
+      <c r="D723" s="12"/>
+      <c r="E723" s="12"/>
       <c r="F723" s="10"/>
       <c r="G723" s="10"/>
-      <c r="H723" s="13"/>
+      <c r="H723" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="724" customHeight="1" ht="15.75">
-      <c r="A724" s="12"/>
-      <c r="B724" s="13"/>
-      <c r="C724" s="13"/>
-      <c r="D724" s="13"/>
-      <c r="E724" s="13"/>
+      <c r="A724" s="8"/>
+      <c r="B724" s="12"/>
+      <c r="C724" s="12"/>
+      <c r="D724" s="12"/>
+      <c r="E724" s="12"/>
       <c r="F724" s="10"/>
       <c r="G724" s="10"/>
-      <c r="H724" s="13"/>
+      <c r="H724" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="725" customHeight="1" ht="15.75">
-      <c r="A725" s="12"/>
-      <c r="B725" s="13"/>
-      <c r="C725" s="13"/>
-      <c r="D725" s="13"/>
-      <c r="E725" s="13"/>
+      <c r="A725" s="8"/>
+      <c r="B725" s="12"/>
+      <c r="C725" s="12"/>
+      <c r="D725" s="12"/>
+      <c r="E725" s="12"/>
       <c r="F725" s="10"/>
       <c r="G725" s="10"/>
-      <c r="H725" s="13"/>
+      <c r="H725" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="726" customHeight="1" ht="15.75">
-      <c r="A726" s="12"/>
-      <c r="B726" s="13"/>
-      <c r="C726" s="13"/>
-      <c r="D726" s="13"/>
-      <c r="E726" s="13"/>
+      <c r="A726" s="8"/>
+      <c r="B726" s="12"/>
+      <c r="C726" s="12"/>
+      <c r="D726" s="12"/>
+      <c r="E726" s="12"/>
       <c r="F726" s="10"/>
       <c r="G726" s="10"/>
-      <c r="H726" s="13"/>
+      <c r="H726" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="727" customHeight="1" ht="15.75">
-      <c r="A727" s="12"/>
-      <c r="B727" s="13"/>
-      <c r="C727" s="13"/>
-      <c r="D727" s="13"/>
-      <c r="E727" s="13"/>
+      <c r="A727" s="8"/>
+      <c r="B727" s="12"/>
+      <c r="C727" s="12"/>
+      <c r="D727" s="12"/>
+      <c r="E727" s="12"/>
       <c r="F727" s="10"/>
       <c r="G727" s="10"/>
-      <c r="H727" s="13"/>
+      <c r="H727" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="728" customHeight="1" ht="15.75">
-      <c r="A728" s="12"/>
-      <c r="B728" s="13"/>
-      <c r="C728" s="13"/>
-      <c r="D728" s="13"/>
-      <c r="E728" s="13"/>
+      <c r="A728" s="8"/>
+      <c r="B728" s="12"/>
+      <c r="C728" s="12"/>
+      <c r="D728" s="12"/>
+      <c r="E728" s="12"/>
       <c r="F728" s="10"/>
       <c r="G728" s="10"/>
-      <c r="H728" s="13"/>
+      <c r="H728" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="729" customHeight="1" ht="15.75">
-      <c r="A729" s="12"/>
-      <c r="B729" s="13"/>
-      <c r="C729" s="13"/>
-      <c r="D729" s="13"/>
-      <c r="E729" s="13"/>
+      <c r="A729" s="8"/>
+      <c r="B729" s="12"/>
+      <c r="C729" s="12"/>
+      <c r="D729" s="12"/>
+      <c r="E729" s="12"/>
       <c r="F729" s="10"/>
       <c r="G729" s="10"/>
-      <c r="H729" s="13"/>
+      <c r="H729" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="730" customHeight="1" ht="15.75">
-      <c r="A730" s="12"/>
-      <c r="B730" s="13"/>
-      <c r="C730" s="13"/>
-      <c r="D730" s="13"/>
-      <c r="E730" s="13"/>
+      <c r="A730" s="8"/>
+      <c r="B730" s="12"/>
+      <c r="C730" s="12"/>
+      <c r="D730" s="12"/>
+      <c r="E730" s="12"/>
       <c r="F730" s="10"/>
       <c r="G730" s="10"/>
-      <c r="H730" s="13"/>
+      <c r="H730" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="731" customHeight="1" ht="15.75">
-      <c r="A731" s="12"/>
-      <c r="B731" s="13"/>
-      <c r="C731" s="13"/>
-      <c r="D731" s="13"/>
-      <c r="E731" s="13"/>
+      <c r="A731" s="8"/>
+      <c r="B731" s="12"/>
+      <c r="C731" s="12"/>
+      <c r="D731" s="12"/>
+      <c r="E731" s="12"/>
       <c r="F731" s="10"/>
       <c r="G731" s="10"/>
-      <c r="H731" s="13"/>
+      <c r="H731" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="732" customHeight="1" ht="15.75">
-      <c r="A732" s="12"/>
-      <c r="B732" s="13"/>
-      <c r="C732" s="13"/>
-      <c r="D732" s="13"/>
-      <c r="E732" s="13"/>
+      <c r="A732" s="8"/>
+      <c r="B732" s="12"/>
+      <c r="C732" s="12"/>
+      <c r="D732" s="12"/>
+      <c r="E732" s="12"/>
       <c r="F732" s="10"/>
       <c r="G732" s="10"/>
-      <c r="H732" s="13"/>
+      <c r="H732" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="733" customHeight="1" ht="15.75">
-      <c r="A733" s="12"/>
-      <c r="B733" s="13"/>
-      <c r="C733" s="13"/>
-      <c r="D733" s="13"/>
-      <c r="E733" s="13"/>
+      <c r="A733" s="8"/>
+      <c r="B733" s="12"/>
+      <c r="C733" s="12"/>
+      <c r="D733" s="12"/>
+      <c r="E733" s="12"/>
       <c r="F733" s="10"/>
       <c r="G733" s="10"/>
-      <c r="H733" s="13"/>
+      <c r="H733" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="734" customHeight="1" ht="15.75">
-      <c r="A734" s="12"/>
-      <c r="B734" s="13"/>
-      <c r="C734" s="13"/>
-      <c r="D734" s="13"/>
-      <c r="E734" s="13"/>
+      <c r="A734" s="8"/>
+      <c r="B734" s="12"/>
+      <c r="C734" s="12"/>
+      <c r="D734" s="12"/>
+      <c r="E734" s="12"/>
       <c r="F734" s="10"/>
       <c r="G734" s="10"/>
-      <c r="H734" s="13"/>
+      <c r="H734" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="735" customHeight="1" ht="15.75">
-      <c r="A735" s="12"/>
-      <c r="B735" s="13"/>
-      <c r="C735" s="13"/>
-      <c r="D735" s="13"/>
-      <c r="E735" s="13"/>
+      <c r="A735" s="8"/>
+      <c r="B735" s="12"/>
+      <c r="C735" s="12"/>
+      <c r="D735" s="12"/>
+      <c r="E735" s="12"/>
       <c r="F735" s="10"/>
       <c r="G735" s="10"/>
-      <c r="H735" s="13"/>
+      <c r="H735" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="736" customHeight="1" ht="15.75">
-      <c r="A736" s="12"/>
-      <c r="B736" s="13"/>
-      <c r="C736" s="13"/>
-      <c r="D736" s="13"/>
-      <c r="E736" s="13"/>
+      <c r="A736" s="8"/>
+      <c r="B736" s="12"/>
+      <c r="C736" s="12"/>
+      <c r="D736" s="12"/>
+      <c r="E736" s="12"/>
       <c r="F736" s="10"/>
       <c r="G736" s="10"/>
-      <c r="H736" s="13"/>
+      <c r="H736" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="737" customHeight="1" ht="15.75">
-      <c r="A737" s="12"/>
-      <c r="B737" s="13"/>
-      <c r="C737" s="13"/>
-      <c r="D737" s="13"/>
-      <c r="E737" s="13"/>
+      <c r="A737" s="8"/>
+      <c r="B737" s="12"/>
+      <c r="C737" s="12"/>
+      <c r="D737" s="12"/>
+      <c r="E737" s="12"/>
       <c r="F737" s="10"/>
       <c r="G737" s="10"/>
-      <c r="H737" s="13"/>
+      <c r="H737" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="738" customHeight="1" ht="15.75">
-      <c r="A738" s="12"/>
-      <c r="B738" s="13"/>
-      <c r="C738" s="13"/>
-      <c r="D738" s="13"/>
-      <c r="E738" s="13"/>
+      <c r="A738" s="8"/>
+      <c r="B738" s="12"/>
+      <c r="C738" s="12"/>
+      <c r="D738" s="12"/>
+      <c r="E738" s="12"/>
       <c r="F738" s="10"/>
       <c r="G738" s="10"/>
-      <c r="H738" s="13"/>
+      <c r="H738" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="739" customHeight="1" ht="15.75">
-      <c r="A739" s="12"/>
-      <c r="B739" s="13"/>
-      <c r="C739" s="13"/>
-      <c r="D739" s="13"/>
-      <c r="E739" s="13"/>
+      <c r="A739" s="8"/>
+      <c r="B739" s="12"/>
+      <c r="C739" s="12"/>
+      <c r="D739" s="12"/>
+      <c r="E739" s="12"/>
       <c r="F739" s="10"/>
       <c r="G739" s="10"/>
-      <c r="H739" s="13"/>
+      <c r="H739" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="740" customHeight="1" ht="15.75">
-      <c r="A740" s="12"/>
-      <c r="B740" s="13"/>
-      <c r="C740" s="13"/>
-      <c r="D740" s="13"/>
-      <c r="E740" s="13"/>
+      <c r="A740" s="8"/>
+      <c r="B740" s="12"/>
+      <c r="C740" s="12"/>
+      <c r="D740" s="12"/>
+      <c r="E740" s="12"/>
       <c r="F740" s="10"/>
       <c r="G740" s="10"/>
-      <c r="H740" s="13"/>
+      <c r="H740" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="741" customHeight="1" ht="15.75">
-      <c r="A741" s="12"/>
-      <c r="B741" s="13"/>
-      <c r="C741" s="13"/>
-      <c r="D741" s="13"/>
-      <c r="E741" s="13"/>
+      <c r="A741" s="8"/>
+      <c r="B741" s="12"/>
+      <c r="C741" s="12"/>
+      <c r="D741" s="12"/>
+      <c r="E741" s="12"/>
       <c r="F741" s="10"/>
       <c r="G741" s="10"/>
-      <c r="H741" s="13"/>
+      <c r="H741" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="742" customHeight="1" ht="15.75">
-      <c r="A742" s="12"/>
-      <c r="B742" s="13"/>
-      <c r="C742" s="13"/>
-      <c r="D742" s="13"/>
-      <c r="E742" s="13"/>
+      <c r="A742" s="8"/>
+      <c r="B742" s="12"/>
+      <c r="C742" s="12"/>
+      <c r="D742" s="12"/>
+      <c r="E742" s="12"/>
       <c r="F742" s="10"/>
       <c r="G742" s="10"/>
-      <c r="H742" s="13"/>
+      <c r="H742" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="743" customHeight="1" ht="15.75">
-      <c r="A743" s="12"/>
-      <c r="B743" s="13"/>
-      <c r="C743" s="13"/>
-      <c r="D743" s="13"/>
-      <c r="E743" s="13"/>
+      <c r="A743" s="8"/>
+      <c r="B743" s="12"/>
+      <c r="C743" s="12"/>
+      <c r="D743" s="12"/>
+      <c r="E743" s="12"/>
       <c r="F743" s="10"/>
       <c r="G743" s="10"/>
-      <c r="H743" s="13"/>
+      <c r="H743" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="744" customHeight="1" ht="15.75">
-      <c r="A744" s="12"/>
-      <c r="B744" s="13"/>
-      <c r="C744" s="13"/>
-      <c r="D744" s="13"/>
-      <c r="E744" s="13"/>
+      <c r="A744" s="8"/>
+      <c r="B744" s="12"/>
+      <c r="C744" s="12"/>
+      <c r="D744" s="12"/>
+      <c r="E744" s="12"/>
       <c r="F744" s="10"/>
       <c r="G744" s="10"/>
-      <c r="H744" s="13"/>
+      <c r="H744" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="745" customHeight="1" ht="15.75">
-      <c r="A745" s="12"/>
-      <c r="B745" s="13"/>
-      <c r="C745" s="13"/>
-      <c r="D745" s="13"/>
-      <c r="E745" s="13"/>
+      <c r="A745" s="8"/>
+      <c r="B745" s="12"/>
+      <c r="C745" s="12"/>
+      <c r="D745" s="12"/>
+      <c r="E745" s="12"/>
       <c r="F745" s="10"/>
       <c r="G745" s="10"/>
-      <c r="H745" s="13"/>
+      <c r="H745" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="746" customHeight="1" ht="15.75">
-      <c r="A746" s="12"/>
-      <c r="B746" s="13"/>
-      <c r="C746" s="13"/>
-      <c r="D746" s="13"/>
-      <c r="E746" s="13"/>
+      <c r="A746" s="8"/>
+      <c r="B746" s="12"/>
+      <c r="C746" s="12"/>
+      <c r="D746" s="12"/>
+      <c r="E746" s="12"/>
       <c r="F746" s="10"/>
       <c r="G746" s="10"/>
-      <c r="H746" s="13"/>
+      <c r="H746" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="747" customHeight="1" ht="15.75">
-      <c r="A747" s="12"/>
-      <c r="B747" s="13"/>
-      <c r="C747" s="13"/>
-      <c r="D747" s="13"/>
-      <c r="E747" s="13"/>
+      <c r="A747" s="8"/>
+      <c r="B747" s="12"/>
+      <c r="C747" s="12"/>
+      <c r="D747" s="12"/>
+      <c r="E747" s="12"/>
       <c r="F747" s="10"/>
       <c r="G747" s="10"/>
-      <c r="H747" s="13"/>
+      <c r="H747" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="748" customHeight="1" ht="15.75">
-      <c r="A748" s="12"/>
-      <c r="B748" s="13"/>
-      <c r="C748" s="13"/>
-      <c r="D748" s="13"/>
-      <c r="E748" s="13"/>
+      <c r="A748" s="8"/>
+      <c r="B748" s="12"/>
+      <c r="C748" s="12"/>
+      <c r="D748" s="12"/>
+      <c r="E748" s="12"/>
       <c r="F748" s="10"/>
       <c r="G748" s="10"/>
-      <c r="H748" s="13"/>
+      <c r="H748" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="749" customHeight="1" ht="15.75">
-      <c r="A749" s="12"/>
-      <c r="B749" s="13"/>
-      <c r="C749" s="13"/>
-      <c r="D749" s="13"/>
-      <c r="E749" s="13"/>
+      <c r="A749" s="8"/>
+      <c r="B749" s="12"/>
+      <c r="C749" s="12"/>
+      <c r="D749" s="12"/>
+      <c r="E749" s="12"/>
       <c r="F749" s="10"/>
       <c r="G749" s="10"/>
-      <c r="H749" s="13"/>
+      <c r="H749" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="750" customHeight="1" ht="15.75">
-      <c r="A750" s="12"/>
-      <c r="B750" s="13"/>
-      <c r="C750" s="13"/>
-      <c r="D750" s="13"/>
-      <c r="E750" s="13"/>
+      <c r="A750" s="8"/>
+      <c r="B750" s="12"/>
+      <c r="C750" s="12"/>
+      <c r="D750" s="12"/>
+      <c r="E750" s="12"/>
       <c r="F750" s="10"/>
       <c r="G750" s="10"/>
-      <c r="H750" s="13"/>
+      <c r="H750" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="751" customHeight="1" ht="15.75">
-      <c r="A751" s="12"/>
-      <c r="B751" s="13"/>
-      <c r="C751" s="13"/>
-      <c r="D751" s="13"/>
-      <c r="E751" s="13"/>
+      <c r="A751" s="8"/>
+      <c r="B751" s="12"/>
+      <c r="C751" s="12"/>
+      <c r="D751" s="12"/>
+      <c r="E751" s="12"/>
       <c r="F751" s="10"/>
       <c r="G751" s="10"/>
-      <c r="H751" s="13"/>
+      <c r="H751" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="752" customHeight="1" ht="15.75">
-      <c r="A752" s="12"/>
-      <c r="B752" s="13"/>
-      <c r="C752" s="13"/>
-      <c r="D752" s="13"/>
-      <c r="E752" s="13"/>
+      <c r="A752" s="8"/>
+      <c r="B752" s="12"/>
+      <c r="C752" s="12"/>
+      <c r="D752" s="12"/>
+      <c r="E752" s="12"/>
       <c r="F752" s="10"/>
       <c r="G752" s="10"/>
-      <c r="H752" s="13"/>
+      <c r="H752" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="753" customHeight="1" ht="15.75">
-      <c r="A753" s="12"/>
-      <c r="B753" s="13"/>
-      <c r="C753" s="13"/>
-      <c r="D753" s="13"/>
-      <c r="E753" s="13"/>
+      <c r="A753" s="8"/>
+      <c r="B753" s="12"/>
+      <c r="C753" s="12"/>
+      <c r="D753" s="12"/>
+      <c r="E753" s="12"/>
       <c r="F753" s="10"/>
       <c r="G753" s="10"/>
-      <c r="H753" s="13"/>
+      <c r="H753" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="754" customHeight="1" ht="15.75">
-      <c r="A754" s="12"/>
-      <c r="B754" s="13"/>
-      <c r="C754" s="13"/>
-      <c r="D754" s="13"/>
-      <c r="E754" s="13"/>
+      <c r="A754" s="8"/>
+      <c r="B754" s="12"/>
+      <c r="C754" s="12"/>
+      <c r="D754" s="12"/>
+      <c r="E754" s="12"/>
       <c r="F754" s="10"/>
       <c r="G754" s="10"/>
-      <c r="H754" s="13"/>
+      <c r="H754" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="755" customHeight="1" ht="15.75">
-      <c r="A755" s="12"/>
-      <c r="B755" s="13"/>
-      <c r="C755" s="13"/>
-      <c r="D755" s="13"/>
-      <c r="E755" s="13"/>
+      <c r="A755" s="8"/>
+      <c r="B755" s="12"/>
+      <c r="C755" s="12"/>
+      <c r="D755" s="12"/>
+      <c r="E755" s="12"/>
       <c r="F755" s="10"/>
       <c r="G755" s="10"/>
-      <c r="H755" s="13"/>
+      <c r="H755" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="756" customHeight="1" ht="15.75">
-      <c r="A756" s="12"/>
-      <c r="B756" s="13"/>
-      <c r="C756" s="13"/>
-      <c r="D756" s="13"/>
-      <c r="E756" s="13"/>
+      <c r="A756" s="8"/>
+      <c r="B756" s="12"/>
+      <c r="C756" s="12"/>
+      <c r="D756" s="12"/>
+      <c r="E756" s="12"/>
       <c r="F756" s="10"/>
       <c r="G756" s="10"/>
-      <c r="H756" s="13"/>
+      <c r="H756" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="757" customHeight="1" ht="15.75">
-      <c r="A757" s="12"/>
-      <c r="B757" s="13"/>
-      <c r="C757" s="13"/>
-      <c r="D757" s="13"/>
-      <c r="E757" s="13"/>
+      <c r="A757" s="8"/>
+      <c r="B757" s="12"/>
+      <c r="C757" s="12"/>
+      <c r="D757" s="12"/>
+      <c r="E757" s="12"/>
       <c r="F757" s="10"/>
       <c r="G757" s="10"/>
-      <c r="H757" s="13"/>
+      <c r="H757" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="758" customHeight="1" ht="15.75">
-      <c r="A758" s="12"/>
-      <c r="B758" s="13"/>
-      <c r="C758" s="13"/>
-      <c r="D758" s="13"/>
-      <c r="E758" s="13"/>
+      <c r="A758" s="8"/>
+      <c r="B758" s="12"/>
+      <c r="C758" s="12"/>
+      <c r="D758" s="12"/>
+      <c r="E758" s="12"/>
       <c r="F758" s="10"/>
       <c r="G758" s="10"/>
-      <c r="H758" s="13"/>
+      <c r="H758" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="759" customHeight="1" ht="15.75">
-      <c r="A759" s="12"/>
-      <c r="B759" s="13"/>
-      <c r="C759" s="13"/>
-      <c r="D759" s="13"/>
-      <c r="E759" s="13"/>
+      <c r="A759" s="8"/>
+      <c r="B759" s="12"/>
+      <c r="C759" s="12"/>
+      <c r="D759" s="12"/>
+      <c r="E759" s="12"/>
       <c r="F759" s="10"/>
       <c r="G759" s="10"/>
-      <c r="H759" s="13"/>
+      <c r="H759" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="760" customHeight="1" ht="15.75">
-      <c r="A760" s="12"/>
-      <c r="B760" s="13"/>
-      <c r="C760" s="13"/>
-      <c r="D760" s="13"/>
-      <c r="E760" s="13"/>
+      <c r="A760" s="8"/>
+      <c r="B760" s="12"/>
+      <c r="C760" s="12"/>
+      <c r="D760" s="12"/>
+      <c r="E760" s="12"/>
       <c r="F760" s="10"/>
       <c r="G760" s="10"/>
-      <c r="H760" s="13"/>
+      <c r="H760" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="761" customHeight="1" ht="15.75">
-      <c r="A761" s="12"/>
-      <c r="B761" s="13"/>
-      <c r="C761" s="13"/>
-      <c r="D761" s="13"/>
-      <c r="E761" s="13"/>
+      <c r="A761" s="8"/>
+      <c r="B761" s="12"/>
+      <c r="C761" s="12"/>
+      <c r="D761" s="12"/>
+      <c r="E761" s="12"/>
       <c r="F761" s="10"/>
       <c r="G761" s="10"/>
-      <c r="H761" s="13"/>
+      <c r="H761" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="762" customHeight="1" ht="15.75">
-      <c r="A762" s="12"/>
-      <c r="B762" s="13"/>
-      <c r="C762" s="13"/>
-      <c r="D762" s="13"/>
-      <c r="E762" s="13"/>
+      <c r="A762" s="8"/>
+      <c r="B762" s="12"/>
+      <c r="C762" s="12"/>
+      <c r="D762" s="12"/>
+      <c r="E762" s="12"/>
       <c r="F762" s="10"/>
       <c r="G762" s="10"/>
-      <c r="H762" s="13"/>
+      <c r="H762" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="763" customHeight="1" ht="15.75">
-      <c r="A763" s="12"/>
-      <c r="B763" s="13"/>
-      <c r="C763" s="13"/>
-      <c r="D763" s="13"/>
-      <c r="E763" s="13"/>
+      <c r="A763" s="8"/>
+      <c r="B763" s="12"/>
+      <c r="C763" s="12"/>
+      <c r="D763" s="12"/>
+      <c r="E763" s="12"/>
       <c r="F763" s="10"/>
       <c r="G763" s="10"/>
-      <c r="H763" s="13"/>
+      <c r="H763" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="764" customHeight="1" ht="15.75">
-      <c r="A764" s="12"/>
-      <c r="B764" s="13"/>
-      <c r="C764" s="13"/>
-      <c r="D764" s="13"/>
-      <c r="E764" s="13"/>
+      <c r="A764" s="8"/>
+      <c r="B764" s="12"/>
+      <c r="C764" s="12"/>
+      <c r="D764" s="12"/>
+      <c r="E764" s="12"/>
       <c r="F764" s="10"/>
       <c r="G764" s="10"/>
-      <c r="H764" s="13"/>
+      <c r="H764" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="765" customHeight="1" ht="15.75">
-      <c r="A765" s="12"/>
-      <c r="B765" s="13"/>
-      <c r="C765" s="13"/>
-      <c r="D765" s="13"/>
-      <c r="E765" s="13"/>
+      <c r="A765" s="8"/>
+      <c r="B765" s="12"/>
+      <c r="C765" s="12"/>
+      <c r="D765" s="12"/>
+      <c r="E765" s="12"/>
       <c r="F765" s="10"/>
       <c r="G765" s="10"/>
-      <c r="H765" s="13"/>
+      <c r="H765" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="766" customHeight="1" ht="15.75">
-      <c r="A766" s="12"/>
-      <c r="B766" s="13"/>
-      <c r="C766" s="13"/>
-      <c r="D766" s="13"/>
-      <c r="E766" s="13"/>
+      <c r="A766" s="8"/>
+      <c r="B766" s="12"/>
+      <c r="C766" s="12"/>
+      <c r="D766" s="12"/>
+      <c r="E766" s="12"/>
       <c r="F766" s="10"/>
       <c r="G766" s="10"/>
-      <c r="H766" s="13"/>
+      <c r="H766" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="767" customHeight="1" ht="15.75">
-      <c r="A767" s="12"/>
-      <c r="B767" s="13"/>
-      <c r="C767" s="13"/>
-      <c r="D767" s="13"/>
-      <c r="E767" s="13"/>
+      <c r="A767" s="8"/>
+      <c r="B767" s="12"/>
+      <c r="C767" s="12"/>
+      <c r="D767" s="12"/>
+      <c r="E767" s="12"/>
       <c r="F767" s="10"/>
       <c r="G767" s="10"/>
-      <c r="H767" s="13"/>
+      <c r="H767" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="768" customHeight="1" ht="15.75">
-      <c r="A768" s="12"/>
-      <c r="B768" s="13"/>
-      <c r="C768" s="13"/>
-      <c r="D768" s="13"/>
-      <c r="E768" s="13"/>
+      <c r="A768" s="8"/>
+      <c r="B768" s="12"/>
+      <c r="C768" s="12"/>
+      <c r="D768" s="12"/>
+      <c r="E768" s="12"/>
       <c r="F768" s="10"/>
       <c r="G768" s="10"/>
-      <c r="H768" s="13"/>
+      <c r="H768" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="769" customHeight="1" ht="15.75">
-      <c r="A769" s="12"/>
-      <c r="B769" s="13"/>
-      <c r="C769" s="13"/>
-      <c r="D769" s="13"/>
-      <c r="E769" s="13"/>
+      <c r="A769" s="8"/>
+      <c r="B769" s="12"/>
+      <c r="C769" s="12"/>
+      <c r="D769" s="12"/>
+      <c r="E769" s="12"/>
       <c r="F769" s="10"/>
       <c r="G769" s="10"/>
-      <c r="H769" s="13"/>
+      <c r="H769" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="770" customHeight="1" ht="15.75">
-      <c r="A770" s="12"/>
-      <c r="B770" s="13"/>
-      <c r="C770" s="13"/>
-      <c r="D770" s="13"/>
-      <c r="E770" s="13"/>
+      <c r="A770" s="8"/>
+      <c r="B770" s="12"/>
+      <c r="C770" s="12"/>
+      <c r="D770" s="12"/>
+      <c r="E770" s="12"/>
       <c r="F770" s="10"/>
       <c r="G770" s="10"/>
-      <c r="H770" s="13"/>
+      <c r="H770" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="771" customHeight="1" ht="15.75">
-      <c r="A771" s="12"/>
-      <c r="B771" s="13"/>
-      <c r="C771" s="13"/>
-      <c r="D771" s="13"/>
-      <c r="E771" s="13"/>
+      <c r="A771" s="8"/>
+      <c r="B771" s="12"/>
+      <c r="C771" s="12"/>
+      <c r="D771" s="12"/>
+      <c r="E771" s="12"/>
       <c r="F771" s="10"/>
       <c r="G771" s="10"/>
-      <c r="H771" s="13"/>
+      <c r="H771" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="772" customHeight="1" ht="15.75">
-      <c r="A772" s="12"/>
-      <c r="B772" s="13"/>
-      <c r="C772" s="13"/>
-      <c r="D772" s="13"/>
-      <c r="E772" s="13"/>
+      <c r="A772" s="8"/>
+      <c r="B772" s="12"/>
+      <c r="C772" s="12"/>
+      <c r="D772" s="12"/>
+      <c r="E772" s="12"/>
       <c r="F772" s="10"/>
       <c r="G772" s="10"/>
-      <c r="H772" s="13"/>
+      <c r="H772" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="773" customHeight="1" ht="15.75">
-      <c r="A773" s="12"/>
-      <c r="B773" s="13"/>
-      <c r="C773" s="13"/>
-      <c r="D773" s="13"/>
-      <c r="E773" s="13"/>
+      <c r="A773" s="8"/>
+      <c r="B773" s="12"/>
+      <c r="C773" s="12"/>
+      <c r="D773" s="12"/>
+      <c r="E773" s="12"/>
       <c r="F773" s="10"/>
       <c r="G773" s="10"/>
-      <c r="H773" s="13"/>
+      <c r="H773" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="774" customHeight="1" ht="15.75">
-      <c r="A774" s="12"/>
-      <c r="B774" s="13"/>
-      <c r="C774" s="13"/>
-      <c r="D774" s="13"/>
-      <c r="E774" s="13"/>
+      <c r="A774" s="8"/>
+      <c r="B774" s="12"/>
+      <c r="C774" s="12"/>
+      <c r="D774" s="12"/>
+      <c r="E774" s="12"/>
       <c r="F774" s="10"/>
       <c r="G774" s="10"/>
-      <c r="H774" s="13"/>
+      <c r="H774" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="775" customHeight="1" ht="15.75">
-      <c r="A775" s="12"/>
-      <c r="B775" s="13"/>
-      <c r="C775" s="13"/>
-      <c r="D775" s="13"/>
-      <c r="E775" s="13"/>
+      <c r="A775" s="8"/>
+      <c r="B775" s="12"/>
+      <c r="C775" s="12"/>
+      <c r="D775" s="12"/>
+      <c r="E775" s="12"/>
       <c r="F775" s="10"/>
       <c r="G775" s="10"/>
-      <c r="H775" s="13"/>
+      <c r="H775" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="776" customHeight="1" ht="15.75">
-      <c r="A776" s="12"/>
-      <c r="B776" s="13"/>
-      <c r="C776" s="13"/>
-      <c r="D776" s="13"/>
-      <c r="E776" s="13"/>
+      <c r="A776" s="8"/>
+      <c r="B776" s="12"/>
+      <c r="C776" s="12"/>
+      <c r="D776" s="12"/>
+      <c r="E776" s="12"/>
       <c r="F776" s="10"/>
       <c r="G776" s="10"/>
-      <c r="H776" s="13"/>
+      <c r="H776" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="777" customHeight="1" ht="15.75">
-      <c r="A777" s="12"/>
-      <c r="B777" s="13"/>
-      <c r="C777" s="13"/>
-      <c r="D777" s="13"/>
-      <c r="E777" s="13"/>
+      <c r="A777" s="8"/>
+      <c r="B777" s="12"/>
+      <c r="C777" s="12"/>
+      <c r="D777" s="12"/>
+      <c r="E777" s="12"/>
       <c r="F777" s="10"/>
       <c r="G777" s="10"/>
-      <c r="H777" s="13"/>
+      <c r="H777" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="778" customHeight="1" ht="15.75">
-      <c r="A778" s="12"/>
-      <c r="B778" s="13"/>
-      <c r="C778" s="13"/>
-      <c r="D778" s="13"/>
-      <c r="E778" s="13"/>
+      <c r="A778" s="8"/>
+      <c r="B778" s="12"/>
+      <c r="C778" s="12"/>
+      <c r="D778" s="12"/>
+      <c r="E778" s="12"/>
       <c r="F778" s="10"/>
       <c r="G778" s="10"/>
-      <c r="H778" s="13"/>
+      <c r="H778" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="779" customHeight="1" ht="15.75">
-      <c r="A779" s="12"/>
-      <c r="B779" s="13"/>
-      <c r="C779" s="13"/>
-      <c r="D779" s="13"/>
-      <c r="E779" s="13"/>
+      <c r="A779" s="8"/>
+      <c r="B779" s="12"/>
+      <c r="C779" s="12"/>
+      <c r="D779" s="12"/>
+      <c r="E779" s="12"/>
       <c r="F779" s="10"/>
       <c r="G779" s="10"/>
-      <c r="H779" s="13"/>
+      <c r="H779" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="780" customHeight="1" ht="15.75">
-      <c r="A780" s="12"/>
-      <c r="B780" s="13"/>
-      <c r="C780" s="13"/>
-      <c r="D780" s="13"/>
-      <c r="E780" s="13"/>
+      <c r="A780" s="8"/>
+      <c r="B780" s="12"/>
+      <c r="C780" s="12"/>
+      <c r="D780" s="12"/>
+      <c r="E780" s="12"/>
       <c r="F780" s="10"/>
       <c r="G780" s="10"/>
-      <c r="H780" s="13"/>
+      <c r="H780" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="781" customHeight="1" ht="15.75">
-      <c r="A781" s="12"/>
-      <c r="B781" s="13"/>
-      <c r="C781" s="13"/>
-      <c r="D781" s="13"/>
-      <c r="E781" s="13"/>
+      <c r="A781" s="8"/>
+      <c r="B781" s="12"/>
+      <c r="C781" s="12"/>
+      <c r="D781" s="12"/>
+      <c r="E781" s="12"/>
       <c r="F781" s="10"/>
       <c r="G781" s="10"/>
-      <c r="H781" s="13"/>
+      <c r="H781" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="782" customHeight="1" ht="15.75">
-      <c r="A782" s="12"/>
-      <c r="B782" s="13"/>
-      <c r="C782" s="13"/>
-      <c r="D782" s="13"/>
-      <c r="E782" s="13"/>
+      <c r="A782" s="8"/>
+      <c r="B782" s="12"/>
+      <c r="C782" s="12"/>
+      <c r="D782" s="12"/>
+      <c r="E782" s="12"/>
       <c r="F782" s="10"/>
       <c r="G782" s="10"/>
-      <c r="H782" s="13"/>
+      <c r="H782" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="783" customHeight="1" ht="15.75">
-      <c r="A783" s="12"/>
-      <c r="B783" s="13"/>
-      <c r="C783" s="13"/>
-      <c r="D783" s="13"/>
-      <c r="E783" s="13"/>
+      <c r="A783" s="8"/>
+      <c r="B783" s="12"/>
+      <c r="C783" s="12"/>
+      <c r="D783" s="12"/>
+      <c r="E783" s="12"/>
       <c r="F783" s="10"/>
       <c r="G783" s="10"/>
-      <c r="H783" s="13"/>
+      <c r="H783" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="784" customHeight="1" ht="15.75">
-      <c r="A784" s="12"/>
-      <c r="B784" s="13"/>
-      <c r="C784" s="13"/>
-      <c r="D784" s="13"/>
-      <c r="E784" s="13"/>
+      <c r="A784" s="8"/>
+      <c r="B784" s="12"/>
+      <c r="C784" s="12"/>
+      <c r="D784" s="12"/>
+      <c r="E784" s="12"/>
       <c r="F784" s="10"/>
       <c r="G784" s="10"/>
-      <c r="H784" s="13"/>
+      <c r="H784" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="785" customHeight="1" ht="15.75">
-      <c r="A785" s="12"/>
-      <c r="B785" s="13"/>
-      <c r="C785" s="13"/>
-      <c r="D785" s="13"/>
-      <c r="E785" s="13"/>
+      <c r="A785" s="8"/>
+      <c r="B785" s="12"/>
+      <c r="C785" s="12"/>
+      <c r="D785" s="12"/>
+      <c r="E785" s="12"/>
       <c r="F785" s="10"/>
       <c r="G785" s="10"/>
-      <c r="H785" s="13"/>
+      <c r="H785" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="786" customHeight="1" ht="15.75">
-      <c r="A786" s="12"/>
-      <c r="B786" s="13"/>
-      <c r="C786" s="13"/>
-      <c r="D786" s="13"/>
-      <c r="E786" s="13"/>
+      <c r="A786" s="8"/>
+      <c r="B786" s="12"/>
+      <c r="C786" s="12"/>
+      <c r="D786" s="12"/>
+      <c r="E786" s="12"/>
       <c r="F786" s="10"/>
       <c r="G786" s="10"/>
-      <c r="H786" s="13"/>
+      <c r="H786" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="787" customHeight="1" ht="15.75">
-      <c r="A787" s="12"/>
-      <c r="B787" s="13"/>
-      <c r="C787" s="13"/>
-      <c r="D787" s="13"/>
-      <c r="E787" s="13"/>
+      <c r="A787" s="8"/>
+      <c r="B787" s="12"/>
+      <c r="C787" s="12"/>
+      <c r="D787" s="12"/>
+      <c r="E787" s="12"/>
       <c r="F787" s="10"/>
       <c r="G787" s="10"/>
-      <c r="H787" s="13"/>
+      <c r="H787" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="788" customHeight="1" ht="15.75">
-      <c r="A788" s="12"/>
-      <c r="B788" s="13"/>
-      <c r="C788" s="13"/>
-      <c r="D788" s="13"/>
-      <c r="E788" s="13"/>
+      <c r="A788" s="8"/>
+      <c r="B788" s="12"/>
+      <c r="C788" s="12"/>
+      <c r="D788" s="12"/>
+      <c r="E788" s="12"/>
       <c r="F788" s="10"/>
       <c r="G788" s="10"/>
-      <c r="H788" s="13"/>
+      <c r="H788" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="789" customHeight="1" ht="15.75">
-      <c r="A789" s="12"/>
-      <c r="B789" s="13"/>
-      <c r="C789" s="13"/>
-      <c r="D789" s="13"/>
-      <c r="E789" s="13"/>
+      <c r="A789" s="8"/>
+      <c r="B789" s="12"/>
+      <c r="C789" s="12"/>
+      <c r="D789" s="12"/>
+      <c r="E789" s="12"/>
       <c r="F789" s="10"/>
       <c r="G789" s="10"/>
-      <c r="H789" s="13"/>
+      <c r="H789" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="790" customHeight="1" ht="15.75">
-      <c r="A790" s="12"/>
-      <c r="B790" s="13"/>
-      <c r="C790" s="13"/>
-      <c r="D790" s="13"/>
-      <c r="E790" s="13"/>
+      <c r="A790" s="8"/>
+      <c r="B790" s="12"/>
+      <c r="C790" s="12"/>
+      <c r="D790" s="12"/>
+      <c r="E790" s="12"/>
       <c r="F790" s="10"/>
       <c r="G790" s="10"/>
-      <c r="H790" s="13"/>
+      <c r="H790" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="791" customHeight="1" ht="15.75">
-      <c r="A791" s="12"/>
-      <c r="B791" s="13"/>
-      <c r="C791" s="13"/>
-      <c r="D791" s="13"/>
-      <c r="E791" s="13"/>
+      <c r="A791" s="8"/>
+      <c r="B791" s="12"/>
+      <c r="C791" s="12"/>
+      <c r="D791" s="12"/>
+      <c r="E791" s="12"/>
       <c r="F791" s="10"/>
       <c r="G791" s="10"/>
-      <c r="H791" s="13"/>
+      <c r="H791" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="792" customHeight="1" ht="15.75">
-      <c r="A792" s="12"/>
-      <c r="B792" s="13"/>
-      <c r="C792" s="13"/>
-      <c r="D792" s="13"/>
-      <c r="E792" s="13"/>
+      <c r="A792" s="8"/>
+      <c r="B792" s="12"/>
+      <c r="C792" s="12"/>
+      <c r="D792" s="12"/>
+      <c r="E792" s="12"/>
       <c r="F792" s="10"/>
       <c r="G792" s="10"/>
-      <c r="H792" s="13"/>
+      <c r="H792" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="793" customHeight="1" ht="15.75">
-      <c r="A793" s="12"/>
-      <c r="B793" s="13"/>
-      <c r="C793" s="13"/>
-      <c r="D793" s="13"/>
-      <c r="E793" s="13"/>
+      <c r="A793" s="8"/>
+      <c r="B793" s="12"/>
+      <c r="C793" s="12"/>
+      <c r="D793" s="12"/>
+      <c r="E793" s="12"/>
       <c r="F793" s="10"/>
       <c r="G793" s="10"/>
-      <c r="H793" s="13"/>
+      <c r="H793" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="794" customHeight="1" ht="15.75">
-      <c r="A794" s="12"/>
-      <c r="B794" s="13"/>
-      <c r="C794" s="13"/>
-      <c r="D794" s="13"/>
-      <c r="E794" s="13"/>
+      <c r="A794" s="8"/>
+      <c r="B794" s="12"/>
+      <c r="C794" s="12"/>
+      <c r="D794" s="12"/>
+      <c r="E794" s="12"/>
       <c r="F794" s="10"/>
       <c r="G794" s="10"/>
-      <c r="H794" s="13"/>
+      <c r="H794" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="795" customHeight="1" ht="15.75">
-      <c r="A795" s="12"/>
-      <c r="B795" s="13"/>
-      <c r="C795" s="13"/>
-      <c r="D795" s="13"/>
-      <c r="E795" s="13"/>
+      <c r="A795" s="8"/>
+      <c r="B795" s="12"/>
+      <c r="C795" s="12"/>
+      <c r="D795" s="12"/>
+      <c r="E795" s="12"/>
       <c r="F795" s="10"/>
       <c r="G795" s="10"/>
-      <c r="H795" s="13"/>
+      <c r="H795" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="796" customHeight="1" ht="15.75">
-      <c r="A796" s="12"/>
-      <c r="B796" s="13"/>
-      <c r="C796" s="13"/>
-      <c r="D796" s="13"/>
-      <c r="E796" s="13"/>
+      <c r="A796" s="8"/>
+      <c r="B796" s="12"/>
+      <c r="C796" s="12"/>
+      <c r="D796" s="12"/>
+      <c r="E796" s="12"/>
       <c r="F796" s="10"/>
       <c r="G796" s="10"/>
-      <c r="H796" s="13"/>
+      <c r="H796" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="797" customHeight="1" ht="15.75">
-      <c r="A797" s="12"/>
-      <c r="B797" s="13"/>
-      <c r="C797" s="13"/>
-      <c r="D797" s="13"/>
-      <c r="E797" s="13"/>
+      <c r="A797" s="8"/>
+      <c r="B797" s="12"/>
+      <c r="C797" s="12"/>
+      <c r="D797" s="12"/>
+      <c r="E797" s="12"/>
       <c r="F797" s="10"/>
       <c r="G797" s="10"/>
-      <c r="H797" s="13"/>
+      <c r="H797" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="798" customHeight="1" ht="15.75">
-      <c r="A798" s="12"/>
-      <c r="B798" s="13"/>
-      <c r="C798" s="13"/>
-      <c r="D798" s="13"/>
-      <c r="E798" s="13"/>
+      <c r="A798" s="8"/>
+      <c r="B798" s="12"/>
+      <c r="C798" s="12"/>
+      <c r="D798" s="12"/>
+      <c r="E798" s="12"/>
       <c r="F798" s="10"/>
       <c r="G798" s="10"/>
-      <c r="H798" s="13"/>
+      <c r="H798" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="799" customHeight="1" ht="15.75">
-      <c r="A799" s="12"/>
-      <c r="B799" s="13"/>
-      <c r="C799" s="13"/>
-      <c r="D799" s="13"/>
-      <c r="E799" s="13"/>
+      <c r="A799" s="8"/>
+      <c r="B799" s="12"/>
+      <c r="C799" s="12"/>
+      <c r="D799" s="12"/>
+      <c r="E799" s="12"/>
       <c r="F799" s="10"/>
       <c r="G799" s="10"/>
-      <c r="H799" s="13"/>
+      <c r="H799" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="800" customHeight="1" ht="15.75">
-      <c r="A800" s="12"/>
-      <c r="B800" s="13"/>
-      <c r="C800" s="13"/>
-      <c r="D800" s="13"/>
-      <c r="E800" s="13"/>
+      <c r="A800" s="8"/>
+      <c r="B800" s="12"/>
+      <c r="C800" s="12"/>
+      <c r="D800" s="12"/>
+      <c r="E800" s="12"/>
       <c r="F800" s="10"/>
       <c r="G800" s="10"/>
-      <c r="H800" s="13"/>
+      <c r="H800" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="801" customHeight="1" ht="15.75">
-      <c r="A801" s="12"/>
-      <c r="B801" s="13"/>
-      <c r="C801" s="13"/>
-      <c r="D801" s="13"/>
-      <c r="E801" s="13"/>
+      <c r="A801" s="8"/>
+      <c r="B801" s="12"/>
+      <c r="C801" s="12"/>
+      <c r="D801" s="12"/>
+      <c r="E801" s="12"/>
       <c r="F801" s="10"/>
       <c r="G801" s="10"/>
-      <c r="H801" s="13"/>
+      <c r="H801" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="802" customHeight="1" ht="15.75">
-      <c r="A802" s="12"/>
-      <c r="B802" s="13"/>
-      <c r="C802" s="13"/>
-      <c r="D802" s="13"/>
-      <c r="E802" s="13"/>
+      <c r="A802" s="8"/>
+      <c r="B802" s="12"/>
+      <c r="C802" s="12"/>
+      <c r="D802" s="12"/>
+      <c r="E802" s="12"/>
       <c r="F802" s="10"/>
       <c r="G802" s="10"/>
-      <c r="H802" s="13"/>
+      <c r="H802" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="803" customHeight="1" ht="15.75">
-      <c r="A803" s="12"/>
-      <c r="B803" s="13"/>
-      <c r="C803" s="13"/>
-      <c r="D803" s="13"/>
-      <c r="E803" s="13"/>
+      <c r="A803" s="8"/>
+      <c r="B803" s="12"/>
+      <c r="C803" s="12"/>
+      <c r="D803" s="12"/>
+      <c r="E803" s="12"/>
       <c r="F803" s="10"/>
       <c r="G803" s="10"/>
-      <c r="H803" s="13"/>
+      <c r="H803" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="804" customHeight="1" ht="15.75">
-      <c r="A804" s="12"/>
-      <c r="B804" s="13"/>
-      <c r="C804" s="13"/>
-      <c r="D804" s="13"/>
-      <c r="E804" s="13"/>
+      <c r="A804" s="8"/>
+      <c r="B804" s="12"/>
+      <c r="C804" s="12"/>
+      <c r="D804" s="12"/>
+      <c r="E804" s="12"/>
       <c r="F804" s="10"/>
       <c r="G804" s="10"/>
-      <c r="H804" s="13"/>
+      <c r="H804" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="805" customHeight="1" ht="15.75">
-      <c r="A805" s="12"/>
-      <c r="B805" s="13"/>
-      <c r="C805" s="13"/>
-      <c r="D805" s="13"/>
-      <c r="E805" s="13"/>
+      <c r="A805" s="8"/>
+      <c r="B805" s="12"/>
+      <c r="C805" s="12"/>
+      <c r="D805" s="12"/>
+      <c r="E805" s="12"/>
       <c r="F805" s="10"/>
       <c r="G805" s="10"/>
-      <c r="H805" s="13"/>
+      <c r="H805" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="806" customHeight="1" ht="15.75">
-      <c r="A806" s="12"/>
-      <c r="B806" s="13"/>
-      <c r="C806" s="13"/>
-      <c r="D806" s="13"/>
-      <c r="E806" s="13"/>
+      <c r="A806" s="8"/>
+      <c r="B806" s="12"/>
+      <c r="C806" s="12"/>
+      <c r="D806" s="12"/>
+      <c r="E806" s="12"/>
       <c r="F806" s="10"/>
       <c r="G806" s="10"/>
-      <c r="H806" s="13"/>
+      <c r="H806" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="807" customHeight="1" ht="15.75">
-      <c r="A807" s="12"/>
-      <c r="B807" s="13"/>
-      <c r="C807" s="13"/>
-      <c r="D807" s="13"/>
-      <c r="E807" s="13"/>
+      <c r="A807" s="8"/>
+      <c r="B807" s="12"/>
+      <c r="C807" s="12"/>
+      <c r="D807" s="12"/>
+      <c r="E807" s="12"/>
       <c r="F807" s="10"/>
       <c r="G807" s="10"/>
-      <c r="H807" s="13"/>
+      <c r="H807" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="808" customHeight="1" ht="15.75">
-      <c r="A808" s="12"/>
-      <c r="B808" s="13"/>
-      <c r="C808" s="13"/>
-      <c r="D808" s="13"/>
-      <c r="E808" s="13"/>
+      <c r="A808" s="8"/>
+      <c r="B808" s="12"/>
+      <c r="C808" s="12"/>
+      <c r="D808" s="12"/>
+      <c r="E808" s="12"/>
       <c r="F808" s="10"/>
       <c r="G808" s="10"/>
-      <c r="H808" s="13"/>
+      <c r="H808" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="809" customHeight="1" ht="15.75">
-      <c r="A809" s="12"/>
-      <c r="B809" s="13"/>
-      <c r="C809" s="13"/>
-      <c r="D809" s="13"/>
-      <c r="E809" s="13"/>
+      <c r="A809" s="8"/>
+      <c r="B809" s="12"/>
+      <c r="C809" s="12"/>
+      <c r="D809" s="12"/>
+      <c r="E809" s="12"/>
       <c r="F809" s="10"/>
       <c r="G809" s="10"/>
-      <c r="H809" s="13"/>
+      <c r="H809" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="810" customHeight="1" ht="15.75">
-      <c r="A810" s="12"/>
-      <c r="B810" s="13"/>
-      <c r="C810" s="13"/>
-      <c r="D810" s="13"/>
-      <c r="E810" s="13"/>
+      <c r="A810" s="8"/>
+      <c r="B810" s="12"/>
+      <c r="C810" s="12"/>
+      <c r="D810" s="12"/>
+      <c r="E810" s="12"/>
       <c r="F810" s="10"/>
       <c r="G810" s="10"/>
-      <c r="H810" s="13"/>
+      <c r="H810" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="811" customHeight="1" ht="15.75">
-      <c r="A811" s="12"/>
-      <c r="B811" s="13"/>
-      <c r="C811" s="13"/>
-      <c r="D811" s="13"/>
-      <c r="E811" s="13"/>
+      <c r="A811" s="8"/>
+      <c r="B811" s="12"/>
+      <c r="C811" s="12"/>
+      <c r="D811" s="12"/>
+      <c r="E811" s="12"/>
       <c r="F811" s="10"/>
       <c r="G811" s="10"/>
-      <c r="H811" s="13"/>
+      <c r="H811" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="812" customHeight="1" ht="15.75">
-      <c r="A812" s="12"/>
-      <c r="B812" s="13"/>
-      <c r="C812" s="13"/>
-      <c r="D812" s="13"/>
-      <c r="E812" s="13"/>
+      <c r="A812" s="8"/>
+      <c r="B812" s="12"/>
+      <c r="C812" s="12"/>
+      <c r="D812" s="12"/>
+      <c r="E812" s="12"/>
       <c r="F812" s="10"/>
       <c r="G812" s="10"/>
-      <c r="H812" s="13"/>
+      <c r="H812" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="813" customHeight="1" ht="15.75">
-      <c r="A813" s="12"/>
-      <c r="B813" s="13"/>
-      <c r="C813" s="13"/>
-      <c r="D813" s="13"/>
-      <c r="E813" s="13"/>
+      <c r="A813" s="8"/>
+      <c r="B813" s="12"/>
+      <c r="C813" s="12"/>
+      <c r="D813" s="12"/>
+      <c r="E813" s="12"/>
       <c r="F813" s="10"/>
       <c r="G813" s="10"/>
-      <c r="H813" s="13"/>
+      <c r="H813" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="814" customHeight="1" ht="15.75">
-      <c r="A814" s="12"/>
-      <c r="B814" s="13"/>
-      <c r="C814" s="13"/>
-      <c r="D814" s="13"/>
-      <c r="E814" s="13"/>
+      <c r="A814" s="8"/>
+      <c r="B814" s="12"/>
+      <c r="C814" s="12"/>
+      <c r="D814" s="12"/>
+      <c r="E814" s="12"/>
       <c r="F814" s="10"/>
       <c r="G814" s="10"/>
-      <c r="H814" s="13"/>
+      <c r="H814" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="815" customHeight="1" ht="15.75">
-      <c r="A815" s="12"/>
-      <c r="B815" s="13"/>
-      <c r="C815" s="13"/>
-      <c r="D815" s="13"/>
-      <c r="E815" s="13"/>
+      <c r="A815" s="8"/>
+      <c r="B815" s="12"/>
+      <c r="C815" s="12"/>
+      <c r="D815" s="12"/>
+      <c r="E815" s="12"/>
       <c r="F815" s="10"/>
       <c r="G815" s="10"/>
-      <c r="H815" s="13"/>
+      <c r="H815" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="816" customHeight="1" ht="15.75">
-      <c r="A816" s="12"/>
-      <c r="B816" s="13"/>
-      <c r="C816" s="13"/>
-      <c r="D816" s="13"/>
-      <c r="E816" s="13"/>
+      <c r="A816" s="8"/>
+      <c r="B816" s="12"/>
+      <c r="C816" s="12"/>
+      <c r="D816" s="12"/>
+      <c r="E816" s="12"/>
       <c r="F816" s="10"/>
       <c r="G816" s="10"/>
-      <c r="H816" s="13"/>
+      <c r="H816" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="817" customHeight="1" ht="15.75">
-      <c r="A817" s="12"/>
-      <c r="B817" s="13"/>
-      <c r="C817" s="13"/>
-      <c r="D817" s="13"/>
-      <c r="E817" s="13"/>
+      <c r="A817" s="8"/>
+      <c r="B817" s="12"/>
+      <c r="C817" s="12"/>
+      <c r="D817" s="12"/>
+      <c r="E817" s="12"/>
       <c r="F817" s="10"/>
       <c r="G817" s="10"/>
-      <c r="H817" s="13"/>
+      <c r="H817" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="818" customHeight="1" ht="15.75">
-      <c r="A818" s="12"/>
-      <c r="B818" s="13"/>
-      <c r="C818" s="13"/>
-      <c r="D818" s="13"/>
-      <c r="E818" s="13"/>
+      <c r="A818" s="8"/>
+      <c r="B818" s="12"/>
+      <c r="C818" s="12"/>
+      <c r="D818" s="12"/>
+      <c r="E818" s="12"/>
       <c r="F818" s="10"/>
       <c r="G818" s="10"/>
-      <c r="H818" s="13"/>
+      <c r="H818" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="819" customHeight="1" ht="15.75">
-      <c r="A819" s="12"/>
-      <c r="B819" s="13"/>
-      <c r="C819" s="13"/>
-      <c r="D819" s="13"/>
-      <c r="E819" s="13"/>
+      <c r="A819" s="8"/>
+      <c r="B819" s="12"/>
+      <c r="C819" s="12"/>
+      <c r="D819" s="12"/>
+      <c r="E819" s="12"/>
       <c r="F819" s="10"/>
       <c r="G819" s="10"/>
-      <c r="H819" s="13"/>
+      <c r="H819" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="820" customHeight="1" ht="15.75">
-      <c r="A820" s="12"/>
-      <c r="B820" s="13"/>
-      <c r="C820" s="13"/>
-      <c r="D820" s="13"/>
-      <c r="E820" s="13"/>
+      <c r="A820" s="8"/>
+      <c r="B820" s="12"/>
+      <c r="C820" s="12"/>
+      <c r="D820" s="12"/>
+      <c r="E820" s="12"/>
       <c r="F820" s="10"/>
       <c r="G820" s="10"/>
-      <c r="H820" s="13"/>
+      <c r="H820" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="821" customHeight="1" ht="15.75">
-      <c r="A821" s="12"/>
-      <c r="B821" s="13"/>
-      <c r="C821" s="13"/>
-      <c r="D821" s="13"/>
-      <c r="E821" s="13"/>
+      <c r="A821" s="8"/>
+      <c r="B821" s="12"/>
+      <c r="C821" s="12"/>
+      <c r="D821" s="12"/>
+      <c r="E821" s="12"/>
       <c r="F821" s="10"/>
       <c r="G821" s="10"/>
-      <c r="H821" s="13"/>
+      <c r="H821" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="822" customHeight="1" ht="15.75">
-      <c r="A822" s="12"/>
-      <c r="B822" s="13"/>
-      <c r="C822" s="13"/>
-      <c r="D822" s="13"/>
-      <c r="E822" s="13"/>
+      <c r="A822" s="8"/>
+      <c r="B822" s="12"/>
+      <c r="C822" s="12"/>
+      <c r="D822" s="12"/>
+      <c r="E822" s="12"/>
       <c r="F822" s="10"/>
       <c r="G822" s="10"/>
-      <c r="H822" s="13"/>
+      <c r="H822" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="823" customHeight="1" ht="15.75">
-      <c r="A823" s="12"/>
-      <c r="B823" s="13"/>
-      <c r="C823" s="13"/>
-      <c r="D823" s="13"/>
-      <c r="E823" s="13"/>
+      <c r="A823" s="8"/>
+      <c r="B823" s="12"/>
+      <c r="C823" s="12"/>
+      <c r="D823" s="12"/>
+      <c r="E823" s="12"/>
       <c r="F823" s="10"/>
       <c r="G823" s="10"/>
-      <c r="H823" s="13"/>
+      <c r="H823" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="824" customHeight="1" ht="15.75">
-      <c r="A824" s="12"/>
-      <c r="B824" s="13"/>
-      <c r="C824" s="13"/>
-      <c r="D824" s="13"/>
-      <c r="E824" s="13"/>
+      <c r="A824" s="8"/>
+      <c r="B824" s="12"/>
+      <c r="C824" s="12"/>
+      <c r="D824" s="12"/>
+      <c r="E824" s="12"/>
       <c r="F824" s="10"/>
       <c r="G824" s="10"/>
-      <c r="H824" s="13"/>
+      <c r="H824" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="825" customHeight="1" ht="15.75">
-      <c r="A825" s="12"/>
-      <c r="B825" s="13"/>
-      <c r="C825" s="13"/>
-      <c r="D825" s="13"/>
-      <c r="E825" s="13"/>
+      <c r="A825" s="8"/>
+      <c r="B825" s="12"/>
+      <c r="C825" s="12"/>
+      <c r="D825" s="12"/>
+      <c r="E825" s="12"/>
       <c r="F825" s="10"/>
       <c r="G825" s="10"/>
-      <c r="H825" s="13"/>
+      <c r="H825" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="826" customHeight="1" ht="15.75">
-      <c r="A826" s="12"/>
-      <c r="B826" s="13"/>
-      <c r="C826" s="13"/>
-      <c r="D826" s="13"/>
-      <c r="E826" s="13"/>
+      <c r="A826" s="8"/>
+      <c r="B826" s="12"/>
+      <c r="C826" s="12"/>
+      <c r="D826" s="12"/>
+      <c r="E826" s="12"/>
       <c r="F826" s="10"/>
       <c r="G826" s="10"/>
-      <c r="H826" s="13"/>
+      <c r="H826" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="827" customHeight="1" ht="15.75">
-      <c r="A827" s="12"/>
-      <c r="B827" s="13"/>
-      <c r="C827" s="13"/>
-      <c r="D827" s="13"/>
-      <c r="E827" s="13"/>
+      <c r="A827" s="8"/>
+      <c r="B827" s="12"/>
+      <c r="C827" s="12"/>
+      <c r="D827" s="12"/>
+      <c r="E827" s="12"/>
       <c r="F827" s="10"/>
       <c r="G827" s="10"/>
-      <c r="H827" s="13"/>
+      <c r="H827" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="828" customHeight="1" ht="15.75">
-      <c r="A828" s="12"/>
-      <c r="B828" s="13"/>
-      <c r="C828" s="13"/>
-      <c r="D828" s="13"/>
-      <c r="E828" s="13"/>
+      <c r="A828" s="8"/>
+      <c r="B828" s="12"/>
+      <c r="C828" s="12"/>
+      <c r="D828" s="12"/>
+      <c r="E828" s="12"/>
       <c r="F828" s="10"/>
       <c r="G828" s="10"/>
-      <c r="H828" s="13"/>
+      <c r="H828" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="829" customHeight="1" ht="15.75">
-      <c r="A829" s="12"/>
-      <c r="B829" s="13"/>
-      <c r="C829" s="13"/>
-      <c r="D829" s="13"/>
-      <c r="E829" s="13"/>
+      <c r="A829" s="8"/>
+      <c r="B829" s="12"/>
+      <c r="C829" s="12"/>
+      <c r="D829" s="12"/>
+      <c r="E829" s="12"/>
       <c r="F829" s="10"/>
       <c r="G829" s="10"/>
-      <c r="H829" s="13"/>
+      <c r="H829" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="830" customHeight="1" ht="15.75">
-      <c r="A830" s="12"/>
-      <c r="B830" s="13"/>
-      <c r="C830" s="13"/>
-      <c r="D830" s="13"/>
-      <c r="E830" s="13"/>
+      <c r="A830" s="8"/>
+      <c r="B830" s="12"/>
+      <c r="C830" s="12"/>
+      <c r="D830" s="12"/>
+      <c r="E830" s="12"/>
       <c r="F830" s="10"/>
       <c r="G830" s="10"/>
-      <c r="H830" s="13"/>
+      <c r="H830" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="831" customHeight="1" ht="15.75">
-      <c r="A831" s="12"/>
-      <c r="B831" s="13"/>
-      <c r="C831" s="13"/>
-      <c r="D831" s="13"/>
-      <c r="E831" s="13"/>
+      <c r="A831" s="8"/>
+      <c r="B831" s="12"/>
+      <c r="C831" s="12"/>
+      <c r="D831" s="12"/>
+      <c r="E831" s="12"/>
       <c r="F831" s="10"/>
       <c r="G831" s="10"/>
-      <c r="H831" s="13"/>
+      <c r="H831" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="832" customHeight="1" ht="15.75">
-      <c r="A832" s="12"/>
-      <c r="B832" s="13"/>
-      <c r="C832" s="13"/>
-      <c r="D832" s="13"/>
-      <c r="E832" s="13"/>
+      <c r="A832" s="8"/>
+      <c r="B832" s="12"/>
+      <c r="C832" s="12"/>
+      <c r="D832" s="12"/>
+      <c r="E832" s="12"/>
       <c r="F832" s="10"/>
       <c r="G832" s="10"/>
-      <c r="H832" s="13"/>
+      <c r="H832" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="833" customHeight="1" ht="15.75">
-      <c r="A833" s="12"/>
-      <c r="B833" s="13"/>
-      <c r="C833" s="13"/>
-      <c r="D833" s="13"/>
-      <c r="E833" s="13"/>
+      <c r="A833" s="8"/>
+      <c r="B833" s="12"/>
+      <c r="C833" s="12"/>
+      <c r="D833" s="12"/>
+      <c r="E833" s="12"/>
       <c r="F833" s="10"/>
       <c r="G833" s="10"/>
-      <c r="H833" s="13"/>
+      <c r="H833" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="834" customHeight="1" ht="15.75">
-      <c r="A834" s="12"/>
-      <c r="B834" s="13"/>
-      <c r="C834" s="13"/>
-      <c r="D834" s="13"/>
-      <c r="E834" s="13"/>
+      <c r="A834" s="8"/>
+      <c r="B834" s="12"/>
+      <c r="C834" s="12"/>
+      <c r="D834" s="12"/>
+      <c r="E834" s="12"/>
       <c r="F834" s="10"/>
       <c r="G834" s="10"/>
-      <c r="H834" s="13"/>
+      <c r="H834" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="835" customHeight="1" ht="15.75">
-      <c r="A835" s="12"/>
-      <c r="B835" s="13"/>
-      <c r="C835" s="13"/>
-      <c r="D835" s="13"/>
-      <c r="E835" s="13"/>
+      <c r="A835" s="8"/>
+      <c r="B835" s="12"/>
+      <c r="C835" s="12"/>
+      <c r="D835" s="12"/>
+      <c r="E835" s="12"/>
       <c r="F835" s="10"/>
       <c r="G835" s="10"/>
-      <c r="H835" s="13"/>
+      <c r="H835" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="836" customHeight="1" ht="15.75">
-      <c r="A836" s="12"/>
-      <c r="B836" s="13"/>
-      <c r="C836" s="13"/>
-      <c r="D836" s="13"/>
-      <c r="E836" s="13"/>
+      <c r="A836" s="8"/>
+      <c r="B836" s="12"/>
+      <c r="C836" s="12"/>
+      <c r="D836" s="12"/>
+      <c r="E836" s="12"/>
       <c r="F836" s="10"/>
       <c r="G836" s="10"/>
-      <c r="H836" s="13"/>
+      <c r="H836" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="837" customHeight="1" ht="15.75">
-      <c r="A837" s="12"/>
-      <c r="B837" s="13"/>
-      <c r="C837" s="13"/>
-      <c r="D837" s="13"/>
-      <c r="E837" s="13"/>
+      <c r="A837" s="8"/>
+      <c r="B837" s="12"/>
+      <c r="C837" s="12"/>
+      <c r="D837" s="12"/>
+      <c r="E837" s="12"/>
       <c r="F837" s="10"/>
       <c r="G837" s="10"/>
-      <c r="H837" s="13"/>
+      <c r="H837" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="838" customHeight="1" ht="15.75">
-      <c r="A838" s="12"/>
-      <c r="B838" s="13"/>
-      <c r="C838" s="13"/>
-      <c r="D838" s="13"/>
-      <c r="E838" s="13"/>
+      <c r="A838" s="8"/>
+      <c r="B838" s="12"/>
+      <c r="C838" s="12"/>
+      <c r="D838" s="12"/>
+      <c r="E838" s="12"/>
       <c r="F838" s="10"/>
       <c r="G838" s="10"/>
-      <c r="H838" s="13"/>
+      <c r="H838" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="839" customHeight="1" ht="15.75">
-      <c r="A839" s="12"/>
-      <c r="B839" s="13"/>
-      <c r="C839" s="13"/>
-      <c r="D839" s="13"/>
-      <c r="E839" s="13"/>
+      <c r="A839" s="8"/>
+      <c r="B839" s="12"/>
+      <c r="C839" s="12"/>
+      <c r="D839" s="12"/>
+      <c r="E839" s="12"/>
       <c r="F839" s="10"/>
       <c r="G839" s="10"/>
-      <c r="H839" s="13"/>
+      <c r="H839" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="840" customHeight="1" ht="15.75">
-      <c r="A840" s="12"/>
-      <c r="B840" s="13"/>
-      <c r="C840" s="13"/>
-      <c r="D840" s="13"/>
-      <c r="E840" s="13"/>
+      <c r="A840" s="8"/>
+      <c r="B840" s="12"/>
+      <c r="C840" s="12"/>
+      <c r="D840" s="12"/>
+      <c r="E840" s="12"/>
       <c r="F840" s="10"/>
       <c r="G840" s="10"/>
-      <c r="H840" s="13"/>
+      <c r="H840" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="841" customHeight="1" ht="15.75">
-      <c r="A841" s="12"/>
-      <c r="B841" s="13"/>
-      <c r="C841" s="13"/>
-      <c r="D841" s="13"/>
-      <c r="E841" s="13"/>
+      <c r="A841" s="8"/>
+      <c r="B841" s="12"/>
+      <c r="C841" s="12"/>
+      <c r="D841" s="12"/>
+      <c r="E841" s="12"/>
       <c r="F841" s="10"/>
       <c r="G841" s="10"/>
-      <c r="H841" s="13"/>
+      <c r="H841" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="842" customHeight="1" ht="15.75">
-      <c r="A842" s="12"/>
-      <c r="B842" s="13"/>
-      <c r="C842" s="13"/>
-      <c r="D842" s="13"/>
-      <c r="E842" s="13"/>
+      <c r="A842" s="8"/>
+      <c r="B842" s="12"/>
+      <c r="C842" s="12"/>
+      <c r="D842" s="12"/>
+      <c r="E842" s="12"/>
       <c r="F842" s="10"/>
       <c r="G842" s="10"/>
-      <c r="H842" s="13"/>
+      <c r="H842" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="843" customHeight="1" ht="15.75">
-      <c r="A843" s="12"/>
-      <c r="B843" s="13"/>
-      <c r="C843" s="13"/>
-      <c r="D843" s="13"/>
-      <c r="E843" s="13"/>
+      <c r="A843" s="8"/>
+      <c r="B843" s="12"/>
+      <c r="C843" s="12"/>
+      <c r="D843" s="12"/>
+      <c r="E843" s="12"/>
       <c r="F843" s="10"/>
       <c r="G843" s="10"/>
-      <c r="H843" s="13"/>
+      <c r="H843" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="844" customHeight="1" ht="15.75">
-      <c r="A844" s="12"/>
-      <c r="B844" s="13"/>
-      <c r="C844" s="13"/>
-      <c r="D844" s="13"/>
-      <c r="E844" s="13"/>
+      <c r="A844" s="8"/>
+      <c r="B844" s="12"/>
+      <c r="C844" s="12"/>
+      <c r="D844" s="12"/>
+      <c r="E844" s="12"/>
       <c r="F844" s="10"/>
       <c r="G844" s="10"/>
-      <c r="H844" s="13"/>
+      <c r="H844" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="845" customHeight="1" ht="15.75">
-      <c r="A845" s="12"/>
-      <c r="B845" s="13"/>
-      <c r="C845" s="13"/>
-      <c r="D845" s="13"/>
-      <c r="E845" s="13"/>
+      <c r="A845" s="8"/>
+      <c r="B845" s="12"/>
+      <c r="C845" s="12"/>
+      <c r="D845" s="12"/>
+      <c r="E845" s="12"/>
       <c r="F845" s="10"/>
       <c r="G845" s="10"/>
-      <c r="H845" s="13"/>
+      <c r="H845" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="846" customHeight="1" ht="15.75">
-      <c r="A846" s="12"/>
-      <c r="B846" s="13"/>
-      <c r="C846" s="13"/>
-      <c r="D846" s="13"/>
-      <c r="E846" s="13"/>
+      <c r="A846" s="8"/>
+      <c r="B846" s="12"/>
+      <c r="C846" s="12"/>
+      <c r="D846" s="12"/>
+      <c r="E846" s="12"/>
       <c r="F846" s="10"/>
       <c r="G846" s="10"/>
-      <c r="H846" s="13"/>
+      <c r="H846" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="847" customHeight="1" ht="15.75">
-      <c r="A847" s="12"/>
-      <c r="B847" s="13"/>
-      <c r="C847" s="13"/>
-      <c r="D847" s="13"/>
-      <c r="E847" s="13"/>
+      <c r="A847" s="8"/>
+      <c r="B847" s="12"/>
+      <c r="C847" s="12"/>
+      <c r="D847" s="12"/>
+      <c r="E847" s="12"/>
       <c r="F847" s="10"/>
       <c r="G847" s="10"/>
-      <c r="H847" s="13"/>
+      <c r="H847" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="848" customHeight="1" ht="15.75">
-      <c r="A848" s="12"/>
-      <c r="B848" s="13"/>
-      <c r="C848" s="13"/>
-      <c r="D848" s="13"/>
-      <c r="E848" s="13"/>
+      <c r="A848" s="8"/>
+      <c r="B848" s="12"/>
+      <c r="C848" s="12"/>
+      <c r="D848" s="12"/>
+      <c r="E848" s="12"/>
       <c r="F848" s="10"/>
       <c r="G848" s="10"/>
-      <c r="H848" s="13"/>
+      <c r="H848" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="849" customHeight="1" ht="15.75">
-      <c r="A849" s="12"/>
-      <c r="B849" s="13"/>
-      <c r="C849" s="13"/>
-      <c r="D849" s="13"/>
-      <c r="E849" s="13"/>
+      <c r="A849" s="8"/>
+      <c r="B849" s="12"/>
+      <c r="C849" s="12"/>
+      <c r="D849" s="12"/>
+      <c r="E849" s="12"/>
       <c r="F849" s="10"/>
       <c r="G849" s="10"/>
-      <c r="H849" s="13"/>
+      <c r="H849" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="850" customHeight="1" ht="15.75">
-      <c r="A850" s="12"/>
-      <c r="B850" s="13"/>
-      <c r="C850" s="13"/>
-      <c r="D850" s="13"/>
-      <c r="E850" s="13"/>
+      <c r="A850" s="8"/>
+      <c r="B850" s="12"/>
+      <c r="C850" s="12"/>
+      <c r="D850" s="12"/>
+      <c r="E850" s="12"/>
       <c r="F850" s="10"/>
       <c r="G850" s="10"/>
-      <c r="H850" s="13"/>
+      <c r="H850" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="851" customHeight="1" ht="15.75">
-      <c r="A851" s="12"/>
-      <c r="B851" s="13"/>
-      <c r="C851" s="13"/>
-      <c r="D851" s="13"/>
-      <c r="E851" s="13"/>
+      <c r="A851" s="8"/>
+      <c r="B851" s="12"/>
+      <c r="C851" s="12"/>
+      <c r="D851" s="12"/>
+      <c r="E851" s="12"/>
       <c r="F851" s="10"/>
       <c r="G851" s="10"/>
-      <c r="H851" s="13"/>
+      <c r="H851" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="852" customHeight="1" ht="15.75">
-      <c r="A852" s="12"/>
-      <c r="B852" s="13"/>
-      <c r="C852" s="13"/>
-      <c r="D852" s="13"/>
-      <c r="E852" s="13"/>
+      <c r="A852" s="8"/>
+      <c r="B852" s="12"/>
+      <c r="C852" s="12"/>
+      <c r="D852" s="12"/>
+      <c r="E852" s="12"/>
       <c r="F852" s="10"/>
       <c r="G852" s="10"/>
-      <c r="H852" s="13"/>
+      <c r="H852" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="853" customHeight="1" ht="15.75">
-      <c r="A853" s="12"/>
-      <c r="B853" s="13"/>
-      <c r="C853" s="13"/>
-      <c r="D853" s="13"/>
-      <c r="E853" s="13"/>
+      <c r="A853" s="8"/>
+      <c r="B853" s="12"/>
+      <c r="C853" s="12"/>
+      <c r="D853" s="12"/>
+      <c r="E853" s="12"/>
       <c r="F853" s="10"/>
       <c r="G853" s="10"/>
-      <c r="H853" s="13"/>
+      <c r="H853" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="854" customHeight="1" ht="15.75">
-      <c r="A854" s="12"/>
-      <c r="B854" s="13"/>
-      <c r="C854" s="13"/>
-      <c r="D854" s="13"/>
-      <c r="E854" s="13"/>
+      <c r="A854" s="8"/>
+      <c r="B854" s="12"/>
+      <c r="C854" s="12"/>
+      <c r="D854" s="12"/>
+      <c r="E854" s="12"/>
       <c r="F854" s="10"/>
       <c r="G854" s="10"/>
-      <c r="H854" s="13"/>
+      <c r="H854" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="855" customHeight="1" ht="15.75">
-      <c r="A855" s="12"/>
-      <c r="B855" s="13"/>
-      <c r="C855" s="13"/>
-      <c r="D855" s="13"/>
-      <c r="E855" s="13"/>
+      <c r="A855" s="8"/>
+      <c r="B855" s="12"/>
+      <c r="C855" s="12"/>
+      <c r="D855" s="12"/>
+      <c r="E855" s="12"/>
       <c r="F855" s="10"/>
       <c r="G855" s="10"/>
-      <c r="H855" s="13"/>
+      <c r="H855" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="856" customHeight="1" ht="15.75">
-      <c r="A856" s="12"/>
-      <c r="B856" s="13"/>
-      <c r="C856" s="13"/>
-      <c r="D856" s="13"/>
-      <c r="E856" s="13"/>
+      <c r="A856" s="8"/>
+      <c r="B856" s="12"/>
+      <c r="C856" s="12"/>
+      <c r="D856" s="12"/>
+      <c r="E856" s="12"/>
       <c r="F856" s="10"/>
       <c r="G856" s="10"/>
-      <c r="H856" s="13"/>
+      <c r="H856" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="857" customHeight="1" ht="15.75">
-      <c r="A857" s="12"/>
-      <c r="B857" s="13"/>
-      <c r="C857" s="13"/>
-      <c r="D857" s="13"/>
-      <c r="E857" s="13"/>
+      <c r="A857" s="8"/>
+      <c r="B857" s="12"/>
+      <c r="C857" s="12"/>
+      <c r="D857" s="12"/>
+      <c r="E857" s="12"/>
       <c r="F857" s="10"/>
       <c r="G857" s="10"/>
-      <c r="H857" s="13"/>
+      <c r="H857" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="858" customHeight="1" ht="15.75">
-      <c r="A858" s="12"/>
-      <c r="B858" s="13"/>
-      <c r="C858" s="13"/>
-      <c r="D858" s="13"/>
-      <c r="E858" s="13"/>
+      <c r="A858" s="8"/>
+      <c r="B858" s="12"/>
+      <c r="C858" s="12"/>
+      <c r="D858" s="12"/>
+      <c r="E858" s="12"/>
       <c r="F858" s="10"/>
       <c r="G858" s="10"/>
-      <c r="H858" s="13"/>
+      <c r="H858" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="859" customHeight="1" ht="15.75">
-      <c r="A859" s="12"/>
-      <c r="B859" s="13"/>
-      <c r="C859" s="13"/>
-      <c r="D859" s="13"/>
-      <c r="E859" s="13"/>
+      <c r="A859" s="8"/>
+      <c r="B859" s="12"/>
+      <c r="C859" s="12"/>
+      <c r="D859" s="12"/>
+      <c r="E859" s="12"/>
       <c r="F859" s="10"/>
       <c r="G859" s="10"/>
-      <c r="H859" s="13"/>
+      <c r="H859" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="860" customHeight="1" ht="15.75">
-      <c r="A860" s="12"/>
-      <c r="B860" s="13"/>
-      <c r="C860" s="13"/>
-      <c r="D860" s="13"/>
-      <c r="E860" s="13"/>
+      <c r="A860" s="8"/>
+      <c r="B860" s="12"/>
+      <c r="C860" s="12"/>
+      <c r="D860" s="12"/>
+      <c r="E860" s="12"/>
       <c r="F860" s="10"/>
       <c r="G860" s="10"/>
-      <c r="H860" s="13"/>
+      <c r="H860" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="861" customHeight="1" ht="15.75">
-      <c r="A861" s="12"/>
-      <c r="B861" s="13"/>
-      <c r="C861" s="13"/>
-      <c r="D861" s="13"/>
-      <c r="E861" s="13"/>
+      <c r="A861" s="8"/>
+      <c r="B861" s="12"/>
+      <c r="C861" s="12"/>
+      <c r="D861" s="12"/>
+      <c r="E861" s="12"/>
       <c r="F861" s="10"/>
       <c r="G861" s="10"/>
-      <c r="H861" s="13"/>
+      <c r="H861" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="862" customHeight="1" ht="15.75">
-      <c r="A862" s="12"/>
-      <c r="B862" s="13"/>
-      <c r="C862" s="13"/>
-      <c r="D862" s="13"/>
-      <c r="E862" s="13"/>
+      <c r="A862" s="8"/>
+      <c r="B862" s="12"/>
+      <c r="C862" s="12"/>
+      <c r="D862" s="12"/>
+      <c r="E862" s="12"/>
       <c r="F862" s="10"/>
       <c r="G862" s="10"/>
-      <c r="H862" s="13"/>
+      <c r="H862" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="863" customHeight="1" ht="15.75">
-      <c r="A863" s="12"/>
-      <c r="B863" s="13"/>
-      <c r="C863" s="13"/>
-      <c r="D863" s="13"/>
-      <c r="E863" s="13"/>
+      <c r="A863" s="8"/>
+      <c r="B863" s="12"/>
+      <c r="C863" s="12"/>
+      <c r="D863" s="12"/>
+      <c r="E863" s="12"/>
       <c r="F863" s="10"/>
       <c r="G863" s="10"/>
-      <c r="H863" s="13"/>
+      <c r="H863" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="864" customHeight="1" ht="15.75">
-      <c r="A864" s="12"/>
-      <c r="B864" s="13"/>
-      <c r="C864" s="13"/>
-      <c r="D864" s="13"/>
-      <c r="E864" s="13"/>
+      <c r="A864" s="8"/>
+      <c r="B864" s="12"/>
+      <c r="C864" s="12"/>
+      <c r="D864" s="12"/>
+      <c r="E864" s="12"/>
       <c r="F864" s="10"/>
       <c r="G864" s="10"/>
-      <c r="H864" s="13"/>
+      <c r="H864" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="865" customHeight="1" ht="15.75">
-      <c r="A865" s="12"/>
-      <c r="B865" s="13"/>
-      <c r="C865" s="13"/>
-      <c r="D865" s="13"/>
-      <c r="E865" s="13"/>
+      <c r="A865" s="8"/>
+      <c r="B865" s="12"/>
+      <c r="C865" s="12"/>
+      <c r="D865" s="12"/>
+      <c r="E865" s="12"/>
       <c r="F865" s="10"/>
       <c r="G865" s="10"/>
-      <c r="H865" s="13"/>
+      <c r="H865" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="866" customHeight="1" ht="15.75">
-      <c r="A866" s="12"/>
-      <c r="B866" s="13"/>
-      <c r="C866" s="13"/>
-      <c r="D866" s="13"/>
-      <c r="E866" s="13"/>
+      <c r="A866" s="8"/>
+      <c r="B866" s="12"/>
+      <c r="C866" s="12"/>
+      <c r="D866" s="12"/>
+      <c r="E866" s="12"/>
       <c r="F866" s="10"/>
       <c r="G866" s="10"/>
-      <c r="H866" s="13"/>
+      <c r="H866" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="867" customHeight="1" ht="15.75">
-      <c r="A867" s="12"/>
-      <c r="B867" s="13"/>
-      <c r="C867" s="13"/>
-      <c r="D867" s="13"/>
-      <c r="E867" s="13"/>
+      <c r="A867" s="8"/>
+      <c r="B867" s="12"/>
+      <c r="C867" s="12"/>
+      <c r="D867" s="12"/>
+      <c r="E867" s="12"/>
       <c r="F867" s="10"/>
       <c r="G867" s="10"/>
-      <c r="H867" s="13"/>
+      <c r="H867" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="868" customHeight="1" ht="15.75">
-      <c r="A868" s="12"/>
-      <c r="B868" s="13"/>
-      <c r="C868" s="13"/>
-      <c r="D868" s="13"/>
-      <c r="E868" s="13"/>
+      <c r="A868" s="8"/>
+      <c r="B868" s="12"/>
+      <c r="C868" s="12"/>
+      <c r="D868" s="12"/>
+      <c r="E868" s="12"/>
       <c r="F868" s="10"/>
       <c r="G868" s="10"/>
-      <c r="H868" s="13"/>
+      <c r="H868" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="869" customHeight="1" ht="15.75">
-      <c r="A869" s="12"/>
-      <c r="B869" s="13"/>
-      <c r="C869" s="13"/>
-      <c r="D869" s="13"/>
-      <c r="E869" s="13"/>
+      <c r="A869" s="8"/>
+      <c r="B869" s="12"/>
+      <c r="C869" s="12"/>
+      <c r="D869" s="12"/>
+      <c r="E869" s="12"/>
       <c r="F869" s="10"/>
       <c r="G869" s="10"/>
-      <c r="H869" s="13"/>
+      <c r="H869" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="870" customHeight="1" ht="15.75">
-      <c r="A870" s="12"/>
-      <c r="B870" s="13"/>
-      <c r="C870" s="13"/>
-      <c r="D870" s="13"/>
-      <c r="E870" s="13"/>
+      <c r="A870" s="8"/>
+      <c r="B870" s="12"/>
+      <c r="C870" s="12"/>
+      <c r="D870" s="12"/>
+      <c r="E870" s="12"/>
       <c r="F870" s="10"/>
       <c r="G870" s="10"/>
-      <c r="H870" s="13"/>
+      <c r="H870" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="871" customHeight="1" ht="15.75">
-      <c r="A871" s="12"/>
-      <c r="B871" s="13"/>
-      <c r="C871" s="13"/>
-      <c r="D871" s="13"/>
-      <c r="E871" s="13"/>
+      <c r="A871" s="8"/>
+      <c r="B871" s="12"/>
+      <c r="C871" s="12"/>
+      <c r="D871" s="12"/>
+      <c r="E871" s="12"/>
       <c r="F871" s="10"/>
       <c r="G871" s="10"/>
-      <c r="H871" s="13"/>
+      <c r="H871" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="872" customHeight="1" ht="15.75">
-      <c r="A872" s="12"/>
-      <c r="B872" s="13"/>
-      <c r="C872" s="13"/>
-      <c r="D872" s="13"/>
-      <c r="E872" s="13"/>
+      <c r="A872" s="8"/>
+      <c r="B872" s="12"/>
+      <c r="C872" s="12"/>
+      <c r="D872" s="12"/>
+      <c r="E872" s="12"/>
       <c r="F872" s="10"/>
       <c r="G872" s="10"/>
-      <c r="H872" s="13"/>
+      <c r="H872" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="873" customHeight="1" ht="15.75">
-      <c r="A873" s="12"/>
-      <c r="B873" s="13"/>
-      <c r="C873" s="13"/>
-      <c r="D873" s="13"/>
-      <c r="E873" s="13"/>
+      <c r="A873" s="8"/>
+      <c r="B873" s="12"/>
+      <c r="C873" s="12"/>
+      <c r="D873" s="12"/>
+      <c r="E873" s="12"/>
       <c r="F873" s="10"/>
       <c r="G873" s="10"/>
-      <c r="H873" s="13"/>
+      <c r="H873" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="874" customHeight="1" ht="15.75">
-      <c r="A874" s="12"/>
-      <c r="B874" s="13"/>
-      <c r="C874" s="13"/>
-      <c r="D874" s="13"/>
-      <c r="E874" s="13"/>
+      <c r="A874" s="8"/>
+      <c r="B874" s="12"/>
+      <c r="C874" s="12"/>
+      <c r="D874" s="12"/>
+      <c r="E874" s="12"/>
       <c r="F874" s="10"/>
       <c r="G874" s="10"/>
-      <c r="H874" s="13"/>
+      <c r="H874" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="875" customHeight="1" ht="15.75">
-      <c r="A875" s="12"/>
-      <c r="B875" s="13"/>
-      <c r="C875" s="13"/>
-      <c r="D875" s="13"/>
-      <c r="E875" s="13"/>
+      <c r="A875" s="8"/>
+      <c r="B875" s="12"/>
+      <c r="C875" s="12"/>
+      <c r="D875" s="12"/>
+      <c r="E875" s="12"/>
       <c r="F875" s="10"/>
       <c r="G875" s="10"/>
-      <c r="H875" s="13"/>
+      <c r="H875" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="876" customHeight="1" ht="15.75">
-      <c r="A876" s="12"/>
-      <c r="B876" s="13"/>
-      <c r="C876" s="13"/>
-      <c r="D876" s="13"/>
-      <c r="E876" s="13"/>
+      <c r="A876" s="8"/>
+      <c r="B876" s="12"/>
+      <c r="C876" s="12"/>
+      <c r="D876" s="12"/>
+      <c r="E876" s="12"/>
       <c r="F876" s="10"/>
       <c r="G876" s="10"/>
-      <c r="H876" s="13"/>
+      <c r="H876" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="877" customHeight="1" ht="15.75">
-      <c r="A877" s="12"/>
-      <c r="B877" s="13"/>
-      <c r="C877" s="13"/>
-      <c r="D877" s="13"/>
-      <c r="E877" s="13"/>
+      <c r="A877" s="8"/>
+      <c r="B877" s="12"/>
+      <c r="C877" s="12"/>
+      <c r="D877" s="12"/>
+      <c r="E877" s="12"/>
       <c r="F877" s="10"/>
       <c r="G877" s="10"/>
-      <c r="H877" s="13"/>
+      <c r="H877" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="878" customHeight="1" ht="15.75">
-      <c r="A878" s="12"/>
-      <c r="B878" s="13"/>
-      <c r="C878" s="13"/>
-      <c r="D878" s="13"/>
-      <c r="E878" s="13"/>
+      <c r="A878" s="8"/>
+      <c r="B878" s="12"/>
+      <c r="C878" s="12"/>
+      <c r="D878" s="12"/>
+      <c r="E878" s="12"/>
       <c r="F878" s="10"/>
       <c r="G878" s="10"/>
-      <c r="H878" s="13"/>
+      <c r="H878" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="879" customHeight="1" ht="15.75">
-      <c r="A879" s="12"/>
-      <c r="B879" s="13"/>
-      <c r="C879" s="13"/>
-      <c r="D879" s="13"/>
-      <c r="E879" s="13"/>
+      <c r="A879" s="8"/>
+      <c r="B879" s="12"/>
+      <c r="C879" s="12"/>
+      <c r="D879" s="12"/>
+      <c r="E879" s="12"/>
       <c r="F879" s="10"/>
       <c r="G879" s="10"/>
-      <c r="H879" s="13"/>
+      <c r="H879" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="880" customHeight="1" ht="15.75">
-      <c r="A880" s="12"/>
-      <c r="B880" s="13"/>
-      <c r="C880" s="13"/>
-      <c r="D880" s="13"/>
-      <c r="E880" s="13"/>
+      <c r="A880" s="8"/>
+      <c r="B880" s="12"/>
+      <c r="C880" s="12"/>
+      <c r="D880" s="12"/>
+      <c r="E880" s="12"/>
       <c r="F880" s="10"/>
       <c r="G880" s="10"/>
-      <c r="H880" s="13"/>
+      <c r="H880" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="881" customHeight="1" ht="15.75">
-      <c r="A881" s="12"/>
-      <c r="B881" s="13"/>
-      <c r="C881" s="13"/>
-      <c r="D881" s="13"/>
-      <c r="E881" s="13"/>
+      <c r="A881" s="8"/>
+      <c r="B881" s="12"/>
+      <c r="C881" s="12"/>
+      <c r="D881" s="12"/>
+      <c r="E881" s="12"/>
       <c r="F881" s="10"/>
       <c r="G881" s="10"/>
-      <c r="H881" s="13"/>
+      <c r="H881" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="882" customHeight="1" ht="15.75">
-      <c r="A882" s="12"/>
-      <c r="B882" s="13"/>
-      <c r="C882" s="13"/>
-      <c r="D882" s="13"/>
-      <c r="E882" s="13"/>
+      <c r="A882" s="8"/>
+      <c r="B882" s="12"/>
+      <c r="C882" s="12"/>
+      <c r="D882" s="12"/>
+      <c r="E882" s="12"/>
       <c r="F882" s="10"/>
       <c r="G882" s="10"/>
-      <c r="H882" s="13"/>
+      <c r="H882" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="883" customHeight="1" ht="15.75">
-      <c r="A883" s="12"/>
-      <c r="B883" s="13"/>
-      <c r="C883" s="13"/>
-      <c r="D883" s="13"/>
-      <c r="E883" s="13"/>
+      <c r="A883" s="8"/>
+      <c r="B883" s="12"/>
+      <c r="C883" s="12"/>
+      <c r="D883" s="12"/>
+      <c r="E883" s="12"/>
       <c r="F883" s="10"/>
       <c r="G883" s="10"/>
-      <c r="H883" s="13"/>
+      <c r="H883" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="884" customHeight="1" ht="15.75">
-      <c r="A884" s="12"/>
-      <c r="B884" s="13"/>
-      <c r="C884" s="13"/>
-      <c r="D884" s="13"/>
-      <c r="E884" s="13"/>
+      <c r="A884" s="8"/>
+      <c r="B884" s="12"/>
+      <c r="C884" s="12"/>
+      <c r="D884" s="12"/>
+      <c r="E884" s="12"/>
       <c r="F884" s="10"/>
       <c r="G884" s="10"/>
-      <c r="H884" s="13"/>
+      <c r="H884" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="885" customHeight="1" ht="15.75">
-      <c r="A885" s="12"/>
-      <c r="B885" s="13"/>
-      <c r="C885" s="13"/>
-      <c r="D885" s="13"/>
-      <c r="E885" s="13"/>
+      <c r="A885" s="8"/>
+      <c r="B885" s="12"/>
+      <c r="C885" s="12"/>
+      <c r="D885" s="12"/>
+      <c r="E885" s="12"/>
       <c r="F885" s="10"/>
       <c r="G885" s="10"/>
-      <c r="H885" s="13"/>
+      <c r="H885" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="886" customHeight="1" ht="15.75">
-      <c r="A886" s="12"/>
-      <c r="B886" s="13"/>
-      <c r="C886" s="13"/>
-      <c r="D886" s="13"/>
-      <c r="E886" s="13"/>
+      <c r="A886" s="8"/>
+      <c r="B886" s="12"/>
+      <c r="C886" s="12"/>
+      <c r="D886" s="12"/>
+      <c r="E886" s="12"/>
       <c r="F886" s="10"/>
       <c r="G886" s="10"/>
-      <c r="H886" s="13"/>
+      <c r="H886" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="887" customHeight="1" ht="15.75">
-      <c r="A887" s="12"/>
-      <c r="B887" s="13"/>
-      <c r="C887" s="13"/>
-      <c r="D887" s="13"/>
-      <c r="E887" s="13"/>
+      <c r="A887" s="8"/>
+      <c r="B887" s="12"/>
+      <c r="C887" s="12"/>
+      <c r="D887" s="12"/>
+      <c r="E887" s="12"/>
       <c r="F887" s="10"/>
       <c r="G887" s="10"/>
-      <c r="H887" s="13"/>
+      <c r="H887" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="888" customHeight="1" ht="15.75">
-      <c r="A888" s="12"/>
-      <c r="B888" s="13"/>
-      <c r="C888" s="13"/>
-      <c r="D888" s="13"/>
-      <c r="E888" s="13"/>
+      <c r="A888" s="8"/>
+      <c r="B888" s="12"/>
+      <c r="C888" s="12"/>
+      <c r="D888" s="12"/>
+      <c r="E888" s="12"/>
       <c r="F888" s="10"/>
       <c r="G888" s="10"/>
-      <c r="H888" s="13"/>
+      <c r="H888" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="889" customHeight="1" ht="15.75">
-      <c r="A889" s="12"/>
-      <c r="B889" s="13"/>
-      <c r="C889" s="13"/>
-      <c r="D889" s="13"/>
-      <c r="E889" s="13"/>
+      <c r="A889" s="8"/>
+      <c r="B889" s="12"/>
+      <c r="C889" s="12"/>
+      <c r="D889" s="12"/>
+      <c r="E889" s="12"/>
       <c r="F889" s="10"/>
       <c r="G889" s="10"/>
-      <c r="H889" s="13"/>
+      <c r="H889" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="890" customHeight="1" ht="15.75">
-      <c r="A890" s="12"/>
-      <c r="B890" s="13"/>
-      <c r="C890" s="13"/>
-      <c r="D890" s="13"/>
-      <c r="E890" s="13"/>
+      <c r="A890" s="8"/>
+      <c r="B890" s="12"/>
+      <c r="C890" s="12"/>
+      <c r="D890" s="12"/>
+      <c r="E890" s="12"/>
       <c r="F890" s="10"/>
       <c r="G890" s="10"/>
-      <c r="H890" s="13"/>
+      <c r="H890" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="891" customHeight="1" ht="15.75">
-      <c r="A891" s="12"/>
-      <c r="B891" s="13"/>
-      <c r="C891" s="13"/>
-      <c r="D891" s="13"/>
-      <c r="E891" s="13"/>
+      <c r="A891" s="8"/>
+      <c r="B891" s="12"/>
+      <c r="C891" s="12"/>
+      <c r="D891" s="12"/>
+      <c r="E891" s="12"/>
       <c r="F891" s="10"/>
       <c r="G891" s="10"/>
-      <c r="H891" s="13"/>
+      <c r="H891" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="892" customHeight="1" ht="15.75">
-      <c r="A892" s="12"/>
-      <c r="B892" s="13"/>
-      <c r="C892" s="13"/>
-      <c r="D892" s="13"/>
-      <c r="E892" s="13"/>
+      <c r="A892" s="8"/>
+      <c r="B892" s="12"/>
+      <c r="C892" s="12"/>
+      <c r="D892" s="12"/>
+      <c r="E892" s="12"/>
       <c r="F892" s="10"/>
       <c r="G892" s="10"/>
-      <c r="H892" s="13"/>
+      <c r="H892" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="893" customHeight="1" ht="15.75">
-      <c r="A893" s="12"/>
-      <c r="B893" s="13"/>
-      <c r="C893" s="13"/>
-      <c r="D893" s="13"/>
-      <c r="E893" s="13"/>
+      <c r="A893" s="8"/>
+      <c r="B893" s="12"/>
+      <c r="C893" s="12"/>
+      <c r="D893" s="12"/>
+      <c r="E893" s="12"/>
       <c r="F893" s="10"/>
       <c r="G893" s="10"/>
-      <c r="H893" s="13"/>
+      <c r="H893" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="894" customHeight="1" ht="15.75">
-      <c r="A894" s="12"/>
-      <c r="B894" s="13"/>
-      <c r="C894" s="13"/>
-      <c r="D894" s="13"/>
-      <c r="E894" s="13"/>
+      <c r="A894" s="8"/>
+      <c r="B894" s="12"/>
+      <c r="C894" s="12"/>
+      <c r="D894" s="12"/>
+      <c r="E894" s="12"/>
       <c r="F894" s="10"/>
       <c r="G894" s="10"/>
-      <c r="H894" s="13"/>
+      <c r="H894" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="895" customHeight="1" ht="15.75">
-      <c r="A895" s="12"/>
-      <c r="B895" s="13"/>
-      <c r="C895" s="13"/>
-      <c r="D895" s="13"/>
-      <c r="E895" s="13"/>
+      <c r="A895" s="8"/>
+      <c r="B895" s="12"/>
+      <c r="C895" s="12"/>
+      <c r="D895" s="12"/>
+      <c r="E895" s="12"/>
       <c r="F895" s="10"/>
       <c r="G895" s="10"/>
-      <c r="H895" s="13"/>
+      <c r="H895" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="896" customHeight="1" ht="15.75">
-      <c r="A896" s="12"/>
-      <c r="B896" s="13"/>
-      <c r="C896" s="13"/>
-      <c r="D896" s="13"/>
-      <c r="E896" s="13"/>
+      <c r="A896" s="8"/>
+      <c r="B896" s="12"/>
+      <c r="C896" s="12"/>
+      <c r="D896" s="12"/>
+      <c r="E896" s="12"/>
       <c r="F896" s="10"/>
       <c r="G896" s="10"/>
-      <c r="H896" s="13"/>
+      <c r="H896" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="897" customHeight="1" ht="15.75">
-      <c r="A897" s="12"/>
-      <c r="B897" s="13"/>
-      <c r="C897" s="13"/>
-      <c r="D897" s="13"/>
-      <c r="E897" s="13"/>
+      <c r="A897" s="8"/>
+      <c r="B897" s="12"/>
+      <c r="C897" s="12"/>
+      <c r="D897" s="12"/>
+      <c r="E897" s="12"/>
       <c r="F897" s="10"/>
       <c r="G897" s="10"/>
-      <c r="H897" s="13"/>
+      <c r="H897" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="898" customHeight="1" ht="15.75">
-      <c r="A898" s="12"/>
-      <c r="B898" s="13"/>
-      <c r="C898" s="13"/>
-      <c r="D898" s="13"/>
-      <c r="E898" s="13"/>
+      <c r="A898" s="8"/>
+      <c r="B898" s="12"/>
+      <c r="C898" s="12"/>
+      <c r="D898" s="12"/>
+      <c r="E898" s="12"/>
       <c r="F898" s="10"/>
       <c r="G898" s="10"/>
-      <c r="H898" s="13"/>
+      <c r="H898" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="899" customHeight="1" ht="15.75">
-      <c r="A899" s="12"/>
-      <c r="B899" s="13"/>
-      <c r="C899" s="13"/>
-      <c r="D899" s="13"/>
-      <c r="E899" s="13"/>
+      <c r="A899" s="8"/>
+      <c r="B899" s="12"/>
+      <c r="C899" s="12"/>
+      <c r="D899" s="12"/>
+      <c r="E899" s="12"/>
       <c r="F899" s="10"/>
       <c r="G899" s="10"/>
-      <c r="H899" s="13"/>
+      <c r="H899" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="900" customHeight="1" ht="15.75">
-      <c r="A900" s="12"/>
-      <c r="B900" s="13"/>
-      <c r="C900" s="13"/>
-      <c r="D900" s="13"/>
-      <c r="E900" s="13"/>
+      <c r="A900" s="8"/>
+      <c r="B900" s="12"/>
+      <c r="C900" s="12"/>
+      <c r="D900" s="12"/>
+      <c r="E900" s="12"/>
       <c r="F900" s="10"/>
       <c r="G900" s="10"/>
-      <c r="H900" s="13"/>
+      <c r="H900" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="901" customHeight="1" ht="15.75">
-      <c r="A901" s="12"/>
-      <c r="B901" s="13"/>
-      <c r="C901" s="13"/>
-      <c r="D901" s="13"/>
-      <c r="E901" s="13"/>
+      <c r="A901" s="8"/>
+      <c r="B901" s="12"/>
+      <c r="C901" s="12"/>
+      <c r="D901" s="12"/>
+      <c r="E901" s="12"/>
       <c r="F901" s="10"/>
       <c r="G901" s="10"/>
-      <c r="H901" s="13"/>
+      <c r="H901" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="902" customHeight="1" ht="15.75">
-      <c r="A902" s="12"/>
-      <c r="B902" s="13"/>
-      <c r="C902" s="13"/>
-      <c r="D902" s="13"/>
-      <c r="E902" s="13"/>
+      <c r="A902" s="8"/>
+      <c r="B902" s="12"/>
+      <c r="C902" s="12"/>
+      <c r="D902" s="12"/>
+      <c r="E902" s="12"/>
       <c r="F902" s="10"/>
       <c r="G902" s="10"/>
-      <c r="H902" s="13"/>
+      <c r="H902" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="903" customHeight="1" ht="15.75">
-      <c r="A903" s="12"/>
-      <c r="B903" s="13"/>
-      <c r="C903" s="13"/>
-      <c r="D903" s="13"/>
-      <c r="E903" s="13"/>
+      <c r="A903" s="8"/>
+      <c r="B903" s="12"/>
+      <c r="C903" s="12"/>
+      <c r="D903" s="12"/>
+      <c r="E903" s="12"/>
       <c r="F903" s="10"/>
       <c r="G903" s="10"/>
-      <c r="H903" s="13"/>
+      <c r="H903" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="904" customHeight="1" ht="15.75">
-      <c r="A904" s="12"/>
-      <c r="B904" s="13"/>
-      <c r="C904" s="13"/>
-      <c r="D904" s="13"/>
-      <c r="E904" s="13"/>
+      <c r="A904" s="8"/>
+      <c r="B904" s="12"/>
+      <c r="C904" s="12"/>
+      <c r="D904" s="12"/>
+      <c r="E904" s="12"/>
       <c r="F904" s="10"/>
       <c r="G904" s="10"/>
-      <c r="H904" s="13"/>
+      <c r="H904" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="905" customHeight="1" ht="15.75">
-      <c r="A905" s="12"/>
-      <c r="B905" s="13"/>
-      <c r="C905" s="13"/>
-      <c r="D905" s="13"/>
-      <c r="E905" s="13"/>
+      <c r="A905" s="8"/>
+      <c r="B905" s="12"/>
+      <c r="C905" s="12"/>
+      <c r="D905" s="12"/>
+      <c r="E905" s="12"/>
       <c r="F905" s="10"/>
       <c r="G905" s="10"/>
-      <c r="H905" s="13"/>
+      <c r="H905" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="906" customHeight="1" ht="15.75">
-      <c r="A906" s="12"/>
-      <c r="B906" s="13"/>
-      <c r="C906" s="13"/>
-      <c r="D906" s="13"/>
-      <c r="E906" s="13"/>
+      <c r="A906" s="8"/>
+      <c r="B906" s="12"/>
+      <c r="C906" s="12"/>
+      <c r="D906" s="12"/>
+      <c r="E906" s="12"/>
       <c r="F906" s="10"/>
       <c r="G906" s="10"/>
-      <c r="H906" s="13"/>
+      <c r="H906" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="907" customHeight="1" ht="15.75">
-      <c r="A907" s="12"/>
-      <c r="B907" s="13"/>
-      <c r="C907" s="13"/>
-      <c r="D907" s="13"/>
-      <c r="E907" s="13"/>
+      <c r="A907" s="8"/>
+      <c r="B907" s="12"/>
+      <c r="C907" s="12"/>
+      <c r="D907" s="12"/>
+      <c r="E907" s="12"/>
       <c r="F907" s="10"/>
       <c r="G907" s="10"/>
-      <c r="H907" s="13"/>
+      <c r="H907" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="908" customHeight="1" ht="15.75">
-      <c r="A908" s="12"/>
-      <c r="B908" s="13"/>
-      <c r="C908" s="13"/>
-      <c r="D908" s="13"/>
-      <c r="E908" s="13"/>
+      <c r="A908" s="8"/>
+      <c r="B908" s="12"/>
+      <c r="C908" s="12"/>
+      <c r="D908" s="12"/>
+      <c r="E908" s="12"/>
       <c r="F908" s="10"/>
       <c r="G908" s="10"/>
-      <c r="H908" s="13"/>
+      <c r="H908" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="909" customHeight="1" ht="15.75">
-      <c r="A909" s="12"/>
-      <c r="B909" s="13"/>
-      <c r="C909" s="13"/>
-      <c r="D909" s="13"/>
-      <c r="E909" s="13"/>
+      <c r="A909" s="8"/>
+      <c r="B909" s="12"/>
+      <c r="C909" s="12"/>
+      <c r="D909" s="12"/>
+      <c r="E909" s="12"/>
       <c r="F909" s="10"/>
       <c r="G909" s="10"/>
-      <c r="H909" s="13"/>
+      <c r="H909" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="910" customHeight="1" ht="15.75">
-      <c r="A910" s="12"/>
-      <c r="B910" s="13"/>
-      <c r="C910" s="13"/>
-      <c r="D910" s="13"/>
-      <c r="E910" s="13"/>
+      <c r="A910" s="8"/>
+      <c r="B910" s="12"/>
+      <c r="C910" s="12"/>
+      <c r="D910" s="12"/>
+      <c r="E910" s="12"/>
       <c r="F910" s="10"/>
       <c r="G910" s="10"/>
-      <c r="H910" s="13"/>
+      <c r="H910" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="911" customHeight="1" ht="15.75">
-      <c r="A911" s="12"/>
-      <c r="B911" s="13"/>
-      <c r="C911" s="13"/>
-      <c r="D911" s="13"/>
-      <c r="E911" s="13"/>
+      <c r="A911" s="8"/>
+      <c r="B911" s="12"/>
+      <c r="C911" s="12"/>
+      <c r="D911" s="12"/>
+      <c r="E911" s="12"/>
       <c r="F911" s="10"/>
       <c r="G911" s="10"/>
-      <c r="H911" s="13"/>
+      <c r="H911" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="912" customHeight="1" ht="15.75">
-      <c r="A912" s="12"/>
-      <c r="B912" s="13"/>
-      <c r="C912" s="13"/>
-      <c r="D912" s="13"/>
-      <c r="E912" s="13"/>
+      <c r="A912" s="8"/>
+      <c r="B912" s="12"/>
+      <c r="C912" s="12"/>
+      <c r="D912" s="12"/>
+      <c r="E912" s="12"/>
       <c r="F912" s="10"/>
       <c r="G912" s="10"/>
-      <c r="H912" s="13"/>
+      <c r="H912" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="913" customHeight="1" ht="15.75">
-      <c r="A913" s="12"/>
-      <c r="B913" s="13"/>
-      <c r="C913" s="13"/>
-      <c r="D913" s="13"/>
-      <c r="E913" s="13"/>
+      <c r="A913" s="8"/>
+      <c r="B913" s="12"/>
+      <c r="C913" s="12"/>
+      <c r="D913" s="12"/>
+      <c r="E913" s="12"/>
       <c r="F913" s="10"/>
       <c r="G913" s="10"/>
-      <c r="H913" s="13"/>
+      <c r="H913" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="914" customHeight="1" ht="15.75">
-      <c r="A914" s="12"/>
-      <c r="B914" s="13"/>
-      <c r="C914" s="13"/>
-      <c r="D914" s="13"/>
-      <c r="E914" s="13"/>
+      <c r="A914" s="8"/>
+      <c r="B914" s="12"/>
+      <c r="C914" s="12"/>
+      <c r="D914" s="12"/>
+      <c r="E914" s="12"/>
       <c r="F914" s="10"/>
       <c r="G914" s="10"/>
-      <c r="H914" s="13"/>
+      <c r="H914" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="915" customHeight="1" ht="15.75">
-      <c r="A915" s="12"/>
-      <c r="B915" s="13"/>
-      <c r="C915" s="13"/>
-      <c r="D915" s="13"/>
-      <c r="E915" s="13"/>
+      <c r="A915" s="8"/>
+      <c r="B915" s="12"/>
+      <c r="C915" s="12"/>
+      <c r="D915" s="12"/>
+      <c r="E915" s="12"/>
       <c r="F915" s="10"/>
       <c r="G915" s="10"/>
-      <c r="H915" s="13"/>
+      <c r="H915" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="916" customHeight="1" ht="15.75">
-      <c r="A916" s="12"/>
-      <c r="B916" s="13"/>
-      <c r="C916" s="13"/>
-      <c r="D916" s="13"/>
-      <c r="E916" s="13"/>
+      <c r="A916" s="8"/>
+      <c r="B916" s="12"/>
+      <c r="C916" s="12"/>
+      <c r="D916" s="12"/>
+      <c r="E916" s="12"/>
       <c r="F916" s="10"/>
       <c r="G916" s="10"/>
-      <c r="H916" s="13"/>
+      <c r="H916" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="917" customHeight="1" ht="15.75">
-      <c r="A917" s="12"/>
-      <c r="B917" s="13"/>
-      <c r="C917" s="13"/>
-      <c r="D917" s="13"/>
-      <c r="E917" s="13"/>
+      <c r="A917" s="8"/>
+      <c r="B917" s="12"/>
+      <c r="C917" s="12"/>
+      <c r="D917" s="12"/>
+      <c r="E917" s="12"/>
       <c r="F917" s="10"/>
       <c r="G917" s="10"/>
-      <c r="H917" s="13"/>
+      <c r="H917" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="918" customHeight="1" ht="15.75">
-      <c r="A918" s="12"/>
-      <c r="B918" s="13"/>
-      <c r="C918" s="13"/>
-      <c r="D918" s="13"/>
-      <c r="E918" s="13"/>
+      <c r="A918" s="8"/>
+      <c r="B918" s="12"/>
+      <c r="C918" s="12"/>
+      <c r="D918" s="12"/>
+      <c r="E918" s="12"/>
       <c r="F918" s="10"/>
       <c r="G918" s="10"/>
-      <c r="H918" s="13"/>
+      <c r="H918" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="919" customHeight="1" ht="15.75">
-      <c r="A919" s="12"/>
-      <c r="B919" s="13"/>
-      <c r="C919" s="13"/>
-      <c r="D919" s="13"/>
-      <c r="E919" s="13"/>
+      <c r="A919" s="8"/>
+      <c r="B919" s="12"/>
+      <c r="C919" s="12"/>
+      <c r="D919" s="12"/>
+      <c r="E919" s="12"/>
       <c r="F919" s="10"/>
       <c r="G919" s="10"/>
-      <c r="H919" s="13"/>
+      <c r="H919" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="920" customHeight="1" ht="15.75">
-      <c r="A920" s="12"/>
-      <c r="B920" s="13"/>
-      <c r="C920" s="13"/>
-      <c r="D920" s="13"/>
-      <c r="E920" s="13"/>
+      <c r="A920" s="8"/>
+      <c r="B920" s="12"/>
+      <c r="C920" s="12"/>
+      <c r="D920" s="12"/>
+      <c r="E920" s="12"/>
       <c r="F920" s="10"/>
       <c r="G920" s="10"/>
-      <c r="H920" s="13"/>
+      <c r="H920" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="921" customHeight="1" ht="15.75">
-      <c r="A921" s="12"/>
-      <c r="B921" s="13"/>
-      <c r="C921" s="13"/>
-      <c r="D921" s="13"/>
-      <c r="E921" s="13"/>
+      <c r="A921" s="8"/>
+      <c r="B921" s="12"/>
+      <c r="C921" s="12"/>
+      <c r="D921" s="12"/>
+      <c r="E921" s="12"/>
       <c r="F921" s="10"/>
       <c r="G921" s="10"/>
-      <c r="H921" s="13"/>
+      <c r="H921" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="922" customHeight="1" ht="15.75">
-      <c r="A922" s="12"/>
-      <c r="B922" s="13"/>
-      <c r="C922" s="13"/>
-      <c r="D922" s="13"/>
-      <c r="E922" s="13"/>
+      <c r="A922" s="8"/>
+      <c r="B922" s="12"/>
+      <c r="C922" s="12"/>
+      <c r="D922" s="12"/>
+      <c r="E922" s="12"/>
       <c r="F922" s="10"/>
       <c r="G922" s="10"/>
-      <c r="H922" s="13"/>
+      <c r="H922" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="923" customHeight="1" ht="15.75">
-      <c r="A923" s="12"/>
-      <c r="B923" s="13"/>
-      <c r="C923" s="13"/>
-      <c r="D923" s="13"/>
-      <c r="E923" s="13"/>
+      <c r="A923" s="8"/>
+      <c r="B923" s="12"/>
+      <c r="C923" s="12"/>
+      <c r="D923" s="12"/>
+      <c r="E923" s="12"/>
       <c r="F923" s="10"/>
       <c r="G923" s="10"/>
-      <c r="H923" s="13"/>
+      <c r="H923" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="924" customHeight="1" ht="15.75">
-      <c r="A924" s="12"/>
-      <c r="B924" s="13"/>
-      <c r="C924" s="13"/>
-      <c r="D924" s="13"/>
-      <c r="E924" s="13"/>
+      <c r="A924" s="8"/>
+      <c r="B924" s="12"/>
+      <c r="C924" s="12"/>
+      <c r="D924" s="12"/>
+      <c r="E924" s="12"/>
       <c r="F924" s="10"/>
       <c r="G924" s="10"/>
-      <c r="H924" s="13"/>
+      <c r="H924" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="925" customHeight="1" ht="15.75">
-      <c r="A925" s="12"/>
-      <c r="B925" s="13"/>
-      <c r="C925" s="13"/>
-      <c r="D925" s="13"/>
-      <c r="E925" s="13"/>
+      <c r="A925" s="8"/>
+      <c r="B925" s="12"/>
+      <c r="C925" s="12"/>
+      <c r="D925" s="12"/>
+      <c r="E925" s="12"/>
       <c r="F925" s="10"/>
       <c r="G925" s="10"/>
-      <c r="H925" s="13"/>
+      <c r="H925" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="926" customHeight="1" ht="15.75">
-      <c r="A926" s="12"/>
-      <c r="B926" s="13"/>
-      <c r="C926" s="13"/>
-      <c r="D926" s="13"/>
-      <c r="E926" s="13"/>
+      <c r="A926" s="8"/>
+      <c r="B926" s="12"/>
+      <c r="C926" s="12"/>
+      <c r="D926" s="12"/>
+      <c r="E926" s="12"/>
       <c r="F926" s="10"/>
       <c r="G926" s="10"/>
-      <c r="H926" s="13"/>
+      <c r="H926" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="927" customHeight="1" ht="15.75">
-      <c r="A927" s="12"/>
-      <c r="B927" s="13"/>
-      <c r="C927" s="13"/>
-      <c r="D927" s="13"/>
-      <c r="E927" s="13"/>
+      <c r="A927" s="8"/>
+      <c r="B927" s="12"/>
+      <c r="C927" s="12"/>
+      <c r="D927" s="12"/>
+      <c r="E927" s="12"/>
       <c r="F927" s="10"/>
       <c r="G927" s="10"/>
-      <c r="H927" s="13"/>
+      <c r="H927" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="928" customHeight="1" ht="15.75">
-      <c r="A928" s="12"/>
-      <c r="B928" s="13"/>
-      <c r="C928" s="13"/>
-      <c r="D928" s="13"/>
-      <c r="E928" s="13"/>
+      <c r="A928" s="8"/>
+      <c r="B928" s="12"/>
+      <c r="C928" s="12"/>
+      <c r="D928" s="12"/>
+      <c r="E928" s="12"/>
       <c r="F928" s="10"/>
       <c r="G928" s="10"/>
-      <c r="H928" s="13"/>
+      <c r="H928" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="929" customHeight="1" ht="15.75">
-      <c r="A929" s="12"/>
-      <c r="B929" s="13"/>
-      <c r="C929" s="13"/>
-      <c r="D929" s="13"/>
-      <c r="E929" s="13"/>
+      <c r="A929" s="8"/>
+      <c r="B929" s="12"/>
+      <c r="C929" s="12"/>
+      <c r="D929" s="12"/>
+      <c r="E929" s="12"/>
       <c r="F929" s="10"/>
       <c r="G929" s="10"/>
-      <c r="H929" s="13"/>
+      <c r="H929" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="930" customHeight="1" ht="15.75">
-      <c r="A930" s="12"/>
-      <c r="B930" s="13"/>
-      <c r="C930" s="13"/>
-      <c r="D930" s="13"/>
-      <c r="E930" s="13"/>
+      <c r="A930" s="8"/>
+      <c r="B930" s="12"/>
+      <c r="C930" s="12"/>
+      <c r="D930" s="12"/>
+      <c r="E930" s="12"/>
       <c r="F930" s="10"/>
       <c r="G930" s="10"/>
-      <c r="H930" s="13"/>
+      <c r="H930" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="931" customHeight="1" ht="15.75">
-      <c r="A931" s="12"/>
-      <c r="B931" s="13"/>
-      <c r="C931" s="13"/>
-      <c r="D931" s="13"/>
-      <c r="E931" s="13"/>
+      <c r="A931" s="8"/>
+      <c r="B931" s="12"/>
+      <c r="C931" s="12"/>
+      <c r="D931" s="12"/>
+      <c r="E931" s="12"/>
       <c r="F931" s="10"/>
       <c r="G931" s="10"/>
-      <c r="H931" s="13"/>
+      <c r="H931" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="932" customHeight="1" ht="15.75">
-      <c r="A932" s="12"/>
-      <c r="B932" s="13"/>
-      <c r="C932" s="13"/>
-      <c r="D932" s="13"/>
-      <c r="E932" s="13"/>
+      <c r="A932" s="8"/>
+      <c r="B932" s="12"/>
+      <c r="C932" s="12"/>
+      <c r="D932" s="12"/>
+      <c r="E932" s="12"/>
       <c r="F932" s="10"/>
       <c r="G932" s="10"/>
-      <c r="H932" s="13"/>
+      <c r="H932" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="933" customHeight="1" ht="15.75">
-      <c r="A933" s="12"/>
-      <c r="B933" s="13"/>
-      <c r="C933" s="13"/>
-      <c r="D933" s="13"/>
-      <c r="E933" s="13"/>
+      <c r="A933" s="8"/>
+      <c r="B933" s="12"/>
+      <c r="C933" s="12"/>
+      <c r="D933" s="12"/>
+      <c r="E933" s="12"/>
       <c r="F933" s="10"/>
       <c r="G933" s="10"/>
-      <c r="H933" s="13"/>
+      <c r="H933" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="934" customHeight="1" ht="15.75">
-      <c r="A934" s="12"/>
-      <c r="B934" s="13"/>
-      <c r="C934" s="13"/>
-      <c r="D934" s="13"/>
-      <c r="E934" s="13"/>
+      <c r="A934" s="8"/>
+      <c r="B934" s="12"/>
+      <c r="C934" s="12"/>
+      <c r="D934" s="12"/>
+      <c r="E934" s="12"/>
       <c r="F934" s="10"/>
       <c r="G934" s="10"/>
-      <c r="H934" s="13"/>
+      <c r="H934" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="935" customHeight="1" ht="15.75">
-      <c r="A935" s="12"/>
-      <c r="B935" s="13"/>
-      <c r="C935" s="13"/>
-      <c r="D935" s="13"/>
-      <c r="E935" s="13"/>
+      <c r="A935" s="8"/>
+      <c r="B935" s="12"/>
+      <c r="C935" s="12"/>
+      <c r="D935" s="12"/>
+      <c r="E935" s="12"/>
       <c r="F935" s="10"/>
       <c r="G935" s="10"/>
-      <c r="H935" s="13"/>
+      <c r="H935" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="936" customHeight="1" ht="15.75">
-      <c r="A936" s="12"/>
-      <c r="B936" s="13"/>
-      <c r="C936" s="13"/>
-      <c r="D936" s="13"/>
-      <c r="E936" s="13"/>
+      <c r="A936" s="8"/>
+      <c r="B936" s="12"/>
+      <c r="C936" s="12"/>
+      <c r="D936" s="12"/>
+      <c r="E936" s="12"/>
       <c r="F936" s="10"/>
       <c r="G936" s="10"/>
-      <c r="H936" s="13"/>
+      <c r="H936" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="937" customHeight="1" ht="15.75">
-      <c r="A937" s="12"/>
-      <c r="B937" s="13"/>
-      <c r="C937" s="13"/>
-      <c r="D937" s="13"/>
-      <c r="E937" s="13"/>
+      <c r="A937" s="8"/>
+      <c r="B937" s="12"/>
+      <c r="C937" s="12"/>
+      <c r="D937" s="12"/>
+      <c r="E937" s="12"/>
       <c r="F937" s="10"/>
       <c r="G937" s="10"/>
-      <c r="H937" s="13"/>
+      <c r="H937" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="938" customHeight="1" ht="15.75">
-      <c r="A938" s="12"/>
-      <c r="B938" s="13"/>
-      <c r="C938" s="13"/>
-      <c r="D938" s="13"/>
-      <c r="E938" s="13"/>
+      <c r="A938" s="8"/>
+      <c r="B938" s="12"/>
+      <c r="C938" s="12"/>
+      <c r="D938" s="12"/>
+      <c r="E938" s="12"/>
       <c r="F938" s="10"/>
       <c r="G938" s="10"/>
-      <c r="H938" s="13"/>
+      <c r="H938" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="939" customHeight="1" ht="15.75">
-      <c r="A939" s="12"/>
-      <c r="B939" s="13"/>
-      <c r="C939" s="13"/>
-      <c r="D939" s="13"/>
-      <c r="E939" s="13"/>
+      <c r="A939" s="8"/>
+      <c r="B939" s="12"/>
+      <c r="C939" s="12"/>
+      <c r="D939" s="12"/>
+      <c r="E939" s="12"/>
       <c r="F939" s="10"/>
       <c r="G939" s="10"/>
-      <c r="H939" s="13"/>
+      <c r="H939" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="940" customHeight="1" ht="15.75">
-      <c r="A940" s="12"/>
-      <c r="B940" s="13"/>
-      <c r="C940" s="13"/>
-      <c r="D940" s="13"/>
-      <c r="E940" s="13"/>
+      <c r="A940" s="8"/>
+      <c r="B940" s="12"/>
+      <c r="C940" s="12"/>
+      <c r="D940" s="12"/>
+      <c r="E940" s="12"/>
       <c r="F940" s="10"/>
       <c r="G940" s="10"/>
-      <c r="H940" s="13"/>
+      <c r="H940" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="941" customHeight="1" ht="15.75">
-      <c r="A941" s="12"/>
-      <c r="B941" s="13"/>
-      <c r="C941" s="13"/>
-      <c r="D941" s="13"/>
-      <c r="E941" s="13"/>
+      <c r="A941" s="8"/>
+      <c r="B941" s="12"/>
+      <c r="C941" s="12"/>
+      <c r="D941" s="12"/>
+      <c r="E941" s="12"/>
       <c r="F941" s="10"/>
       <c r="G941" s="10"/>
-      <c r="H941" s="13"/>
+      <c r="H941" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="942" customHeight="1" ht="15.75">
-      <c r="A942" s="12"/>
-      <c r="B942" s="13"/>
-      <c r="C942" s="13"/>
-      <c r="D942" s="13"/>
-      <c r="E942" s="13"/>
+      <c r="A942" s="8"/>
+      <c r="B942" s="12"/>
+      <c r="C942" s="12"/>
+      <c r="D942" s="12"/>
+      <c r="E942" s="12"/>
       <c r="F942" s="10"/>
       <c r="G942" s="10"/>
-      <c r="H942" s="13"/>
+      <c r="H942" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="943" customHeight="1" ht="15.75">
-      <c r="A943" s="12"/>
-      <c r="B943" s="13"/>
-      <c r="C943" s="13"/>
-      <c r="D943" s="13"/>
-      <c r="E943" s="13"/>
+      <c r="A943" s="8"/>
+      <c r="B943" s="12"/>
+      <c r="C943" s="12"/>
+      <c r="D943" s="12"/>
+      <c r="E943" s="12"/>
       <c r="F943" s="10"/>
       <c r="G943" s="10"/>
-      <c r="H943" s="13"/>
+      <c r="H943" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="944" customHeight="1" ht="15.75">
-      <c r="A944" s="12"/>
-      <c r="B944" s="13"/>
-      <c r="C944" s="13"/>
-      <c r="D944" s="13"/>
-      <c r="E944" s="13"/>
+      <c r="A944" s="8"/>
+      <c r="B944" s="12"/>
+      <c r="C944" s="12"/>
+      <c r="D944" s="12"/>
+      <c r="E944" s="12"/>
       <c r="F944" s="10"/>
       <c r="G944" s="10"/>
-      <c r="H944" s="13"/>
+      <c r="H944" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="945" customHeight="1" ht="15.75">
-      <c r="A945" s="12"/>
-      <c r="B945" s="13"/>
-      <c r="C945" s="13"/>
-      <c r="D945" s="13"/>
-      <c r="E945" s="13"/>
+      <c r="A945" s="8"/>
+      <c r="B945" s="12"/>
+      <c r="C945" s="12"/>
+      <c r="D945" s="12"/>
+      <c r="E945" s="12"/>
       <c r="F945" s="10"/>
       <c r="G945" s="10"/>
-      <c r="H945" s="13"/>
+      <c r="H945" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="946" customHeight="1" ht="15.75">
-      <c r="A946" s="12"/>
-      <c r="B946" s="13"/>
-      <c r="C946" s="13"/>
-      <c r="D946" s="13"/>
-      <c r="E946" s="13"/>
+      <c r="A946" s="8"/>
+      <c r="B946" s="12"/>
+      <c r="C946" s="12"/>
+      <c r="D946" s="12"/>
+      <c r="E946" s="12"/>
       <c r="F946" s="10"/>
       <c r="G946" s="10"/>
-      <c r="H946" s="13"/>
+      <c r="H946" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="947" customHeight="1" ht="15.75">
-      <c r="A947" s="12"/>
-      <c r="B947" s="13"/>
-      <c r="C947" s="13"/>
-      <c r="D947" s="13"/>
-      <c r="E947" s="13"/>
+      <c r="A947" s="8"/>
+      <c r="B947" s="12"/>
+      <c r="C947" s="12"/>
+      <c r="D947" s="12"/>
+      <c r="E947" s="12"/>
       <c r="F947" s="10"/>
       <c r="G947" s="10"/>
-      <c r="H947" s="13"/>
+      <c r="H947" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="948" customHeight="1" ht="15.75">
-      <c r="A948" s="12"/>
-      <c r="B948" s="13"/>
-      <c r="C948" s="13"/>
-      <c r="D948" s="13"/>
-      <c r="E948" s="13"/>
+      <c r="A948" s="8"/>
+      <c r="B948" s="12"/>
+      <c r="C948" s="12"/>
+      <c r="D948" s="12"/>
+      <c r="E948" s="12"/>
       <c r="F948" s="10"/>
       <c r="G948" s="10"/>
-      <c r="H948" s="13"/>
+      <c r="H948" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="949" customHeight="1" ht="15.75">
-      <c r="A949" s="12"/>
-      <c r="B949" s="13"/>
-      <c r="C949" s="13"/>
-      <c r="D949" s="13"/>
-      <c r="E949" s="13"/>
+      <c r="A949" s="8"/>
+      <c r="B949" s="12"/>
+      <c r="C949" s="12"/>
+      <c r="D949" s="12"/>
+      <c r="E949" s="12"/>
       <c r="F949" s="10"/>
       <c r="G949" s="10"/>
-      <c r="H949" s="13"/>
+      <c r="H949" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="950" customHeight="1" ht="15.75">
-      <c r="A950" s="12"/>
-      <c r="B950" s="13"/>
-      <c r="C950" s="13"/>
-      <c r="D950" s="13"/>
-      <c r="E950" s="13"/>
+      <c r="A950" s="8"/>
+      <c r="B950" s="12"/>
+      <c r="C950" s="12"/>
+      <c r="D950" s="12"/>
+      <c r="E950" s="12"/>
       <c r="F950" s="10"/>
       <c r="G950" s="10"/>
-      <c r="H950" s="13"/>
+      <c r="H950" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="951" customHeight="1" ht="15.75">
-      <c r="A951" s="12"/>
-      <c r="B951" s="13"/>
-      <c r="C951" s="13"/>
-      <c r="D951" s="13"/>
-      <c r="E951" s="13"/>
+      <c r="A951" s="8"/>
+      <c r="B951" s="12"/>
+      <c r="C951" s="12"/>
+      <c r="D951" s="12"/>
+      <c r="E951" s="12"/>
       <c r="F951" s="10"/>
       <c r="G951" s="10"/>
-      <c r="H951" s="13"/>
+      <c r="H951" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="952" customHeight="1" ht="15.75">
-      <c r="A952" s="12"/>
-      <c r="B952" s="13"/>
-      <c r="C952" s="13"/>
-      <c r="D952" s="13"/>
-      <c r="E952" s="13"/>
+      <c r="A952" s="8"/>
+      <c r="B952" s="12"/>
+      <c r="C952" s="12"/>
+      <c r="D952" s="12"/>
+      <c r="E952" s="12"/>
       <c r="F952" s="10"/>
       <c r="G952" s="10"/>
-      <c r="H952" s="13"/>
+      <c r="H952" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="953" customHeight="1" ht="15.75">
-      <c r="A953" s="12"/>
-      <c r="B953" s="13"/>
-      <c r="C953" s="13"/>
-      <c r="D953" s="13"/>
-      <c r="E953" s="13"/>
+      <c r="A953" s="8"/>
+      <c r="B953" s="12"/>
+      <c r="C953" s="12"/>
+      <c r="D953" s="12"/>
+      <c r="E953" s="12"/>
       <c r="F953" s="10"/>
       <c r="G953" s="10"/>
-      <c r="H953" s="13"/>
+      <c r="H953" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="954" customHeight="1" ht="15.75">
-      <c r="A954" s="12"/>
-      <c r="B954" s="13"/>
-      <c r="C954" s="13"/>
-      <c r="D954" s="13"/>
-      <c r="E954" s="13"/>
+      <c r="A954" s="8"/>
+      <c r="B954" s="12"/>
+      <c r="C954" s="12"/>
+      <c r="D954" s="12"/>
+      <c r="E954" s="12"/>
       <c r="F954" s="10"/>
       <c r="G954" s="10"/>
-      <c r="H954" s="13"/>
+      <c r="H954" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="955" customHeight="1" ht="15.75">
-      <c r="A955" s="12"/>
-      <c r="B955" s="13"/>
-      <c r="C955" s="13"/>
-      <c r="D955" s="13"/>
-      <c r="E955" s="13"/>
+      <c r="A955" s="8"/>
+      <c r="B955" s="12"/>
+      <c r="C955" s="12"/>
+      <c r="D955" s="12"/>
+      <c r="E955" s="12"/>
       <c r="F955" s="10"/>
       <c r="G955" s="10"/>
-      <c r="H955" s="13"/>
+      <c r="H955" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="956" customHeight="1" ht="15.75">
-      <c r="A956" s="12"/>
-      <c r="B956" s="13"/>
-      <c r="C956" s="13"/>
-      <c r="D956" s="13"/>
-      <c r="E956" s="13"/>
+      <c r="A956" s="8"/>
+      <c r="B956" s="12"/>
+      <c r="C956" s="12"/>
+      <c r="D956" s="12"/>
+      <c r="E956" s="12"/>
       <c r="F956" s="10"/>
       <c r="G956" s="10"/>
-      <c r="H956" s="13"/>
+      <c r="H956" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="957" customHeight="1" ht="15.75">
-      <c r="A957" s="12"/>
-      <c r="B957" s="13"/>
-      <c r="C957" s="13"/>
-      <c r="D957" s="13"/>
-      <c r="E957" s="13"/>
+      <c r="A957" s="8"/>
+      <c r="B957" s="12"/>
+      <c r="C957" s="12"/>
+      <c r="D957" s="12"/>
+      <c r="E957" s="12"/>
       <c r="F957" s="10"/>
       <c r="G957" s="10"/>
-      <c r="H957" s="13"/>
+      <c r="H957" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="958" customHeight="1" ht="15.75">
-      <c r="A958" s="12"/>
-      <c r="B958" s="13"/>
-      <c r="C958" s="13"/>
-      <c r="D958" s="13"/>
-      <c r="E958" s="13"/>
+      <c r="A958" s="8"/>
+      <c r="B958" s="12"/>
+      <c r="C958" s="12"/>
+      <c r="D958" s="12"/>
+      <c r="E958" s="12"/>
       <c r="F958" s="10"/>
       <c r="G958" s="10"/>
-      <c r="H958" s="13"/>
+      <c r="H958" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="959" customHeight="1" ht="15.75">
-      <c r="A959" s="12"/>
-      <c r="B959" s="13"/>
-      <c r="C959" s="13"/>
-      <c r="D959" s="13"/>
-      <c r="E959" s="13"/>
+      <c r="A959" s="8"/>
+      <c r="B959" s="12"/>
+      <c r="C959" s="12"/>
+      <c r="D959" s="12"/>
+      <c r="E959" s="12"/>
       <c r="F959" s="10"/>
       <c r="G959" s="10"/>
-      <c r="H959" s="13"/>
+      <c r="H959" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="960" customHeight="1" ht="15.75">
-      <c r="A960" s="12"/>
-      <c r="B960" s="13"/>
-      <c r="C960" s="13"/>
-      <c r="D960" s="13"/>
-      <c r="E960" s="13"/>
+      <c r="A960" s="8"/>
+      <c r="B960" s="12"/>
+      <c r="C960" s="12"/>
+      <c r="D960" s="12"/>
+      <c r="E960" s="12"/>
       <c r="F960" s="10"/>
       <c r="G960" s="10"/>
-      <c r="H960" s="13"/>
+      <c r="H960" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="961" customHeight="1" ht="15.75">
-      <c r="A961" s="12"/>
-      <c r="B961" s="13"/>
-      <c r="C961" s="13"/>
-      <c r="D961" s="13"/>
-      <c r="E961" s="13"/>
+      <c r="A961" s="8"/>
+      <c r="B961" s="12"/>
+      <c r="C961" s="12"/>
+      <c r="D961" s="12"/>
+      <c r="E961" s="12"/>
       <c r="F961" s="10"/>
       <c r="G961" s="10"/>
-      <c r="H961" s="13"/>
+      <c r="H961" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="962" customHeight="1" ht="15.75">
-      <c r="A962" s="12"/>
-      <c r="B962" s="13"/>
-      <c r="C962" s="13"/>
-      <c r="D962" s="13"/>
-      <c r="E962" s="13"/>
+      <c r="A962" s="8"/>
+      <c r="B962" s="12"/>
+      <c r="C962" s="12"/>
+      <c r="D962" s="12"/>
+      <c r="E962" s="12"/>
       <c r="F962" s="10"/>
       <c r="G962" s="10"/>
-      <c r="H962" s="13"/>
+      <c r="H962" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="963" customHeight="1" ht="15.75">
-      <c r="A963" s="12"/>
-      <c r="B963" s="13"/>
-      <c r="C963" s="13"/>
-      <c r="D963" s="13"/>
-      <c r="E963" s="13"/>
+      <c r="A963" s="8"/>
+      <c r="B963" s="12"/>
+      <c r="C963" s="12"/>
+      <c r="D963" s="12"/>
+      <c r="E963" s="12"/>
       <c r="F963" s="10"/>
       <c r="G963" s="10"/>
-      <c r="H963" s="13"/>
+      <c r="H963" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="964" customHeight="1" ht="15.75">
-      <c r="A964" s="12"/>
-      <c r="B964" s="13"/>
-      <c r="C964" s="13"/>
-      <c r="D964" s="13"/>
-      <c r="E964" s="13"/>
+      <c r="A964" s="8"/>
+      <c r="B964" s="12"/>
+      <c r="C964" s="12"/>
+      <c r="D964" s="12"/>
+      <c r="E964" s="12"/>
       <c r="F964" s="10"/>
       <c r="G964" s="10"/>
-      <c r="H964" s="13"/>
+      <c r="H964" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="965" customHeight="1" ht="15.75">
-      <c r="A965" s="12"/>
-      <c r="B965" s="13"/>
-      <c r="C965" s="13"/>
-      <c r="D965" s="13"/>
-      <c r="E965" s="13"/>
+      <c r="A965" s="8"/>
+      <c r="B965" s="12"/>
+      <c r="C965" s="12"/>
+      <c r="D965" s="12"/>
+      <c r="E965" s="12"/>
       <c r="F965" s="10"/>
       <c r="G965" s="10"/>
-      <c r="H965" s="13"/>
+      <c r="H965" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="966" customHeight="1" ht="15.75">
-      <c r="A966" s="12"/>
-      <c r="B966" s="13"/>
-      <c r="C966" s="13"/>
-      <c r="D966" s="13"/>
-      <c r="E966" s="13"/>
+      <c r="A966" s="8"/>
+      <c r="B966" s="12"/>
+      <c r="C966" s="12"/>
+      <c r="D966" s="12"/>
+      <c r="E966" s="12"/>
       <c r="F966" s="10"/>
       <c r="G966" s="10"/>
-      <c r="H966" s="13"/>
+      <c r="H966" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="967" customHeight="1" ht="15.75">
-      <c r="A967" s="12"/>
-      <c r="B967" s="13"/>
-      <c r="C967" s="13"/>
-      <c r="D967" s="13"/>
-      <c r="E967" s="13"/>
+      <c r="A967" s="8"/>
+      <c r="B967" s="12"/>
+      <c r="C967" s="12"/>
+      <c r="D967" s="12"/>
+      <c r="E967" s="12"/>
       <c r="F967" s="10"/>
       <c r="G967" s="10"/>
-      <c r="H967" s="13"/>
+      <c r="H967" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="968" customHeight="1" ht="15.75">
-      <c r="A968" s="12"/>
-      <c r="B968" s="13"/>
-      <c r="C968" s="13"/>
-      <c r="D968" s="13"/>
-      <c r="E968" s="13"/>
+      <c r="A968" s="8"/>
+      <c r="B968" s="12"/>
+      <c r="C968" s="12"/>
+      <c r="D968" s="12"/>
+      <c r="E968" s="12"/>
       <c r="F968" s="10"/>
       <c r="G968" s="10"/>
-      <c r="H968" s="13"/>
+      <c r="H968" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="969" customHeight="1" ht="15.75">
-      <c r="A969" s="12"/>
-      <c r="B969" s="13"/>
-      <c r="C969" s="13"/>
-      <c r="D969" s="13"/>
-      <c r="E969" s="13"/>
+      <c r="A969" s="8"/>
+      <c r="B969" s="12"/>
+      <c r="C969" s="12"/>
+      <c r="D969" s="12"/>
+      <c r="E969" s="12"/>
       <c r="F969" s="10"/>
       <c r="G969" s="10"/>
-      <c r="H969" s="13"/>
+      <c r="H969" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="970" customHeight="1" ht="15.75">
-      <c r="A970" s="12"/>
-      <c r="B970" s="13"/>
-      <c r="C970" s="13"/>
-      <c r="D970" s="13"/>
-      <c r="E970" s="13"/>
+      <c r="A970" s="8"/>
+      <c r="B970" s="12"/>
+      <c r="C970" s="12"/>
+      <c r="D970" s="12"/>
+      <c r="E970" s="12"/>
       <c r="F970" s="10"/>
       <c r="G970" s="10"/>
-      <c r="H970" s="13"/>
+      <c r="H970" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="971" customHeight="1" ht="15.75">
-      <c r="A971" s="12"/>
-      <c r="B971" s="13"/>
-      <c r="C971" s="13"/>
-      <c r="D971" s="13"/>
-      <c r="E971" s="13"/>
+      <c r="A971" s="8"/>
+      <c r="B971" s="12"/>
+      <c r="C971" s="12"/>
+      <c r="D971" s="12"/>
+      <c r="E971" s="12"/>
       <c r="F971" s="10"/>
       <c r="G971" s="10"/>
-      <c r="H971" s="13"/>
+      <c r="H971" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="972" customHeight="1" ht="15.75">
-      <c r="A972" s="12"/>
-      <c r="B972" s="13"/>
-      <c r="C972" s="13"/>
-      <c r="D972" s="13"/>
-      <c r="E972" s="13"/>
+      <c r="A972" s="8"/>
+      <c r="B972" s="12"/>
+      <c r="C972" s="12"/>
+      <c r="D972" s="12"/>
+      <c r="E972" s="12"/>
       <c r="F972" s="10"/>
       <c r="G972" s="10"/>
-      <c r="H972" s="13"/>
+      <c r="H972" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="973" customHeight="1" ht="15.75">
-      <c r="A973" s="12"/>
-      <c r="B973" s="13"/>
-      <c r="C973" s="13"/>
-      <c r="D973" s="13"/>
-      <c r="E973" s="13"/>
+      <c r="A973" s="8"/>
+      <c r="B973" s="12"/>
+      <c r="C973" s="12"/>
+      <c r="D973" s="12"/>
+      <c r="E973" s="12"/>
       <c r="F973" s="10"/>
       <c r="G973" s="10"/>
-      <c r="H973" s="13"/>
+      <c r="H973" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="974" customHeight="1" ht="15.75">
-      <c r="A974" s="12"/>
-      <c r="B974" s="13"/>
-      <c r="C974" s="13"/>
-      <c r="D974" s="13"/>
-      <c r="E974" s="13"/>
+      <c r="A974" s="8"/>
+      <c r="B974" s="12"/>
+      <c r="C974" s="12"/>
+      <c r="D974" s="12"/>
+      <c r="E974" s="12"/>
       <c r="F974" s="10"/>
       <c r="G974" s="10"/>
-      <c r="H974" s="13"/>
+      <c r="H974" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="975" customHeight="1" ht="15.75">
-      <c r="A975" s="12"/>
-      <c r="B975" s="13"/>
-      <c r="C975" s="13"/>
-      <c r="D975" s="13"/>
-      <c r="E975" s="13"/>
+      <c r="A975" s="8"/>
+      <c r="B975" s="12"/>
+      <c r="C975" s="12"/>
+      <c r="D975" s="12"/>
+      <c r="E975" s="12"/>
       <c r="F975" s="10"/>
       <c r="G975" s="10"/>
-      <c r="H975" s="13"/>
+      <c r="H975" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="976" customHeight="1" ht="15.75">
-      <c r="A976" s="12"/>
-      <c r="B976" s="13"/>
-      <c r="C976" s="13"/>
-      <c r="D976" s="13"/>
-      <c r="E976" s="13"/>
+      <c r="A976" s="8"/>
+      <c r="B976" s="12"/>
+      <c r="C976" s="12"/>
+      <c r="D976" s="12"/>
+      <c r="E976" s="12"/>
       <c r="F976" s="10"/>
       <c r="G976" s="10"/>
-      <c r="H976" s="13"/>
+      <c r="H976" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="977" customHeight="1" ht="15.75">
-      <c r="A977" s="12"/>
-      <c r="B977" s="13"/>
-      <c r="C977" s="13"/>
-      <c r="D977" s="13"/>
-      <c r="E977" s="13"/>
+      <c r="A977" s="8"/>
+      <c r="B977" s="12"/>
+      <c r="C977" s="12"/>
+      <c r="D977" s="12"/>
+      <c r="E977" s="12"/>
       <c r="F977" s="10"/>
       <c r="G977" s="10"/>
-      <c r="H977" s="13"/>
+      <c r="H977" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="978" customHeight="1" ht="15.75">
-      <c r="A978" s="12"/>
-      <c r="B978" s="13"/>
-      <c r="C978" s="13"/>
-      <c r="D978" s="13"/>
-      <c r="E978" s="13"/>
+      <c r="A978" s="8"/>
+      <c r="B978" s="12"/>
+      <c r="C978" s="12"/>
+      <c r="D978" s="12"/>
+      <c r="E978" s="12"/>
       <c r="F978" s="10"/>
       <c r="G978" s="10"/>
-      <c r="H978" s="13"/>
+      <c r="H978" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="979" customHeight="1" ht="15.75">
-      <c r="A979" s="12"/>
-      <c r="B979" s="13"/>
-      <c r="C979" s="13"/>
-      <c r="D979" s="13"/>
-      <c r="E979" s="13"/>
+      <c r="A979" s="8"/>
+      <c r="B979" s="12"/>
+      <c r="C979" s="12"/>
+      <c r="D979" s="12"/>
+      <c r="E979" s="12"/>
       <c r="F979" s="10"/>
       <c r="G979" s="10"/>
-      <c r="H979" s="13"/>
+      <c r="H979" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="980" customHeight="1" ht="15.75">
-      <c r="A980" s="12"/>
-      <c r="B980" s="13"/>
-      <c r="C980" s="13"/>
-      <c r="D980" s="13"/>
-      <c r="E980" s="13"/>
+      <c r="A980" s="8"/>
+      <c r="B980" s="12"/>
+      <c r="C980" s="12"/>
+      <c r="D980" s="12"/>
+      <c r="E980" s="12"/>
       <c r="F980" s="10"/>
       <c r="G980" s="10"/>
-      <c r="H980" s="13"/>
+      <c r="H980" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="981" customHeight="1" ht="15.75">
-      <c r="A981" s="12"/>
-      <c r="B981" s="13"/>
-      <c r="C981" s="13"/>
-      <c r="D981" s="13"/>
-      <c r="E981" s="13"/>
+      <c r="A981" s="8"/>
+      <c r="B981" s="12"/>
+      <c r="C981" s="12"/>
+      <c r="D981" s="12"/>
+      <c r="E981" s="12"/>
       <c r="F981" s="10"/>
       <c r="G981" s="10"/>
-      <c r="H981" s="13"/>
+      <c r="H981" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="982" customHeight="1" ht="15.75">
-      <c r="A982" s="12"/>
-      <c r="B982" s="13"/>
-      <c r="C982" s="13"/>
-      <c r="D982" s="13"/>
-      <c r="E982" s="13"/>
+      <c r="A982" s="8"/>
+      <c r="B982" s="12"/>
+      <c r="C982" s="12"/>
+      <c r="D982" s="12"/>
+      <c r="E982" s="12"/>
       <c r="F982" s="10"/>
       <c r="G982" s="10"/>
-      <c r="H982" s="13"/>
+      <c r="H982" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="983" customHeight="1" ht="15.75">
-      <c r="A983" s="12"/>
-      <c r="B983" s="13"/>
-      <c r="C983" s="13"/>
-      <c r="D983" s="13"/>
-      <c r="E983" s="13"/>
+      <c r="A983" s="8"/>
+      <c r="B983" s="12"/>
+      <c r="C983" s="12"/>
+      <c r="D983" s="12"/>
+      <c r="E983" s="12"/>
       <c r="F983" s="10"/>
       <c r="G983" s="10"/>
-      <c r="H983" s="13"/>
+      <c r="H983" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="984" customHeight="1" ht="15.75">
-      <c r="A984" s="12"/>
-      <c r="B984" s="13"/>
-      <c r="C984" s="13"/>
-      <c r="D984" s="13"/>
-      <c r="E984" s="13"/>
+      <c r="A984" s="8"/>
+      <c r="B984" s="12"/>
+      <c r="C984" s="12"/>
+      <c r="D984" s="12"/>
+      <c r="E984" s="12"/>
       <c r="F984" s="10"/>
       <c r="G984" s="10"/>
-      <c r="H984" s="13"/>
+      <c r="H984" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="985" customHeight="1" ht="15.75">
-      <c r="A985" s="12"/>
-      <c r="B985" s="13"/>
-      <c r="C985" s="13"/>
-      <c r="D985" s="13"/>
-      <c r="E985" s="13"/>
+      <c r="A985" s="8"/>
+      <c r="B985" s="12"/>
+      <c r="C985" s="12"/>
+      <c r="D985" s="12"/>
+      <c r="E985" s="12"/>
       <c r="F985" s="10"/>
       <c r="G985" s="10"/>
-      <c r="H985" s="13"/>
+      <c r="H985" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="986" customHeight="1" ht="15.75">
-      <c r="A986" s="12"/>
-      <c r="B986" s="13"/>
-      <c r="C986" s="13"/>
-      <c r="D986" s="13"/>
-      <c r="E986" s="13"/>
+      <c r="A986" s="8"/>
+      <c r="B986" s="12"/>
+      <c r="C986" s="12"/>
+      <c r="D986" s="12"/>
+      <c r="E986" s="12"/>
       <c r="F986" s="10"/>
       <c r="G986" s="10"/>
-      <c r="H986" s="13"/>
+      <c r="H986" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="987" customHeight="1" ht="15.75">
-      <c r="A987" s="12"/>
-      <c r="B987" s="13"/>
-      <c r="C987" s="13"/>
-      <c r="D987" s="13"/>
-      <c r="E987" s="13"/>
+      <c r="A987" s="8"/>
+      <c r="B987" s="12"/>
+      <c r="C987" s="12"/>
+      <c r="D987" s="12"/>
+      <c r="E987" s="12"/>
       <c r="F987" s="10"/>
       <c r="G987" s="10"/>
-      <c r="H987" s="13"/>
+      <c r="H987" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="988" customHeight="1" ht="15.75">
-      <c r="A988" s="12"/>
-      <c r="B988" s="13"/>
-      <c r="C988" s="13"/>
-      <c r="D988" s="13"/>
-      <c r="E988" s="13"/>
+      <c r="A988" s="8"/>
+      <c r="B988" s="12"/>
+      <c r="C988" s="12"/>
+      <c r="D988" s="12"/>
+      <c r="E988" s="12"/>
       <c r="F988" s="10"/>
       <c r="G988" s="10"/>
-      <c r="H988" s="13"/>
+      <c r="H988" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="989" customHeight="1" ht="15.75">
-      <c r="A989" s="12"/>
-      <c r="B989" s="13"/>
-      <c r="C989" s="13"/>
-      <c r="D989" s="13"/>
-      <c r="E989" s="13"/>
+      <c r="A989" s="8"/>
+      <c r="B989" s="12"/>
+      <c r="C989" s="12"/>
+      <c r="D989" s="12"/>
+      <c r="E989" s="12"/>
       <c r="F989" s="10"/>
       <c r="G989" s="10"/>
-      <c r="H989" s="13"/>
+      <c r="H989" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="990" customHeight="1" ht="15.75">
-      <c r="A990" s="12"/>
-      <c r="B990" s="13"/>
-      <c r="C990" s="13"/>
-      <c r="D990" s="13"/>
-      <c r="E990" s="13"/>
+      <c r="A990" s="8"/>
+      <c r="B990" s="12"/>
+      <c r="C990" s="12"/>
+      <c r="D990" s="12"/>
+      <c r="E990" s="12"/>
       <c r="F990" s="10"/>
       <c r="G990" s="10"/>
-      <c r="H990" s="13"/>
+      <c r="H990" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="991" customHeight="1" ht="15.75">
-      <c r="A991" s="12"/>
-      <c r="B991" s="13"/>
-      <c r="C991" s="13"/>
-      <c r="D991" s="13"/>
-      <c r="E991" s="13"/>
+      <c r="A991" s="8"/>
+      <c r="B991" s="12"/>
+      <c r="C991" s="12"/>
+      <c r="D991" s="12"/>
+      <c r="E991" s="12"/>
       <c r="F991" s="10"/>
       <c r="G991" s="10"/>
-      <c r="H991" s="13"/>
+      <c r="H991" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="992" customHeight="1" ht="15.75">
-      <c r="A992" s="12"/>
-      <c r="B992" s="13"/>
-      <c r="C992" s="13"/>
-      <c r="D992" s="13"/>
-      <c r="E992" s="13"/>
+      <c r="A992" s="8"/>
+      <c r="B992" s="12"/>
+      <c r="C992" s="12"/>
+      <c r="D992" s="12"/>
+      <c r="E992" s="12"/>
       <c r="F992" s="10"/>
       <c r="G992" s="10"/>
-      <c r="H992" s="13"/>
+      <c r="H992" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="993" customHeight="1" ht="15.75">
-      <c r="A993" s="12"/>
-      <c r="B993" s="13"/>
-      <c r="C993" s="13"/>
-      <c r="D993" s="13"/>
-      <c r="E993" s="13"/>
+      <c r="A993" s="8"/>
+      <c r="B993" s="12"/>
+      <c r="C993" s="12"/>
+      <c r="D993" s="12"/>
+      <c r="E993" s="12"/>
       <c r="F993" s="10"/>
       <c r="G993" s="10"/>
-      <c r="H993" s="13"/>
+      <c r="H993" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="994" customHeight="1" ht="15.75">
-      <c r="A994" s="12"/>
-      <c r="B994" s="13"/>
-      <c r="C994" s="13"/>
-      <c r="D994" s="13"/>
-      <c r="E994" s="13"/>
+      <c r="A994" s="8"/>
+      <c r="B994" s="12"/>
+      <c r="C994" s="12"/>
+      <c r="D994" s="12"/>
+      <c r="E994" s="12"/>
       <c r="F994" s="10"/>
       <c r="G994" s="10"/>
-      <c r="H994" s="13"/>
+      <c r="H994" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="995" customHeight="1" ht="15.75">
-      <c r="A995" s="12"/>
-      <c r="B995" s="13"/>
-      <c r="C995" s="13"/>
-      <c r="D995" s="13"/>
-      <c r="E995" s="13"/>
+      <c r="A995" s="8"/>
+      <c r="B995" s="12"/>
+      <c r="C995" s="12"/>
+      <c r="D995" s="12"/>
+      <c r="E995" s="12"/>
       <c r="F995" s="10"/>
       <c r="G995" s="10"/>
-      <c r="H995" s="13"/>
+      <c r="H995" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="996" customHeight="1" ht="15.75">
-      <c r="A996" s="12"/>
-      <c r="B996" s="13"/>
-      <c r="C996" s="13"/>
-      <c r="D996" s="13"/>
-      <c r="E996" s="13"/>
+      <c r="A996" s="8"/>
+      <c r="B996" s="12"/>
+      <c r="C996" s="12"/>
+      <c r="D996" s="12"/>
+      <c r="E996" s="12"/>
       <c r="F996" s="10"/>
       <c r="G996" s="10"/>
-      <c r="H996" s="13"/>
+      <c r="H996" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="997" customHeight="1" ht="15.75">
-      <c r="A997" s="12"/>
-      <c r="B997" s="13"/>
-      <c r="C997" s="13"/>
-      <c r="D997" s="13"/>
-      <c r="E997" s="13"/>
+      <c r="A997" s="8"/>
+      <c r="B997" s="12"/>
+      <c r="C997" s="12"/>
+      <c r="D997" s="12"/>
+      <c r="E997" s="12"/>
       <c r="F997" s="10"/>
       <c r="G997" s="10"/>
-      <c r="H997" s="13"/>
+      <c r="H997" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="998" customHeight="1" ht="15.75">
-      <c r="A998" s="12"/>
-      <c r="B998" s="13"/>
-      <c r="C998" s="13"/>
-      <c r="D998" s="13"/>
-      <c r="E998" s="13"/>
+      <c r="A998" s="8"/>
+      <c r="B998" s="12"/>
+      <c r="C998" s="12"/>
+      <c r="D998" s="12"/>
+      <c r="E998" s="12"/>
       <c r="F998" s="10"/>
       <c r="G998" s="10"/>
-      <c r="H998" s="13"/>
+      <c r="H998" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="999" customHeight="1" ht="15.75">
-      <c r="A999" s="12"/>
-      <c r="B999" s="13"/>
-      <c r="C999" s="13"/>
-      <c r="D999" s="13"/>
-      <c r="E999" s="13"/>
+      <c r="A999" s="8"/>
+      <c r="B999" s="12"/>
+      <c r="C999" s="12"/>
+      <c r="D999" s="12"/>
+      <c r="E999" s="12"/>
       <c r="F999" s="10"/>
       <c r="G999" s="10"/>
-      <c r="H999" s="13"/>
+      <c r="H999" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="1000" customHeight="1" ht="15.75">
-      <c r="A1000" s="12"/>
-      <c r="B1000" s="13"/>
-      <c r="C1000" s="13"/>
-      <c r="D1000" s="13"/>
-      <c r="E1000" s="13"/>
+      <c r="A1000" s="8"/>
+      <c r="B1000" s="12"/>
+      <c r="C1000" s="12"/>
+      <c r="D1000" s="12"/>
+      <c r="E1000" s="12"/>
       <c r="F1000" s="10"/>
       <c r="G1000" s="10"/>
-      <c r="H1000" s="13"/>
+      <c r="H1000" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
